--- a/lmolina3/src/utils/codes.xlsx
+++ b/lmolina3/src/utils/codes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="540">
   <si>
     <t>Drug name</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Street Name Code</t>
   </si>
   <si>
+    <t>keyname</t>
+  </si>
+  <si>
+    <t>keyname_id</t>
+  </si>
+  <si>
     <t>Amphetamine</t>
   </si>
   <si>
@@ -31,30 +37,57 @@
     <t>Am-0</t>
   </si>
   <si>
+    <t>amphetamine</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
     <t>Black Beauties</t>
   </si>
   <si>
     <t>Am-1</t>
   </si>
   <si>
+    <t xml:space="preserve">Cocaine </t>
+  </si>
+  <si>
+    <t>Coca</t>
+  </si>
+  <si>
     <t>Speed</t>
   </si>
   <si>
     <t>Am-2</t>
   </si>
   <si>
+    <t>crack cocaine</t>
+  </si>
+  <si>
+    <t>crack-coca</t>
+  </si>
+  <si>
     <t>Uppers</t>
   </si>
   <si>
     <t>Am-3</t>
   </si>
   <si>
+    <t>fentanyl and fentanyl derivatives</t>
+  </si>
+  <si>
+    <t>fent-&amp;-fent-deriv</t>
+  </si>
+  <si>
     <t>Crosses</t>
   </si>
   <si>
     <t>Am-4</t>
   </si>
   <si>
+    <t>GHB</t>
+  </si>
+  <si>
     <t>Cocaine</t>
   </si>
   <si>
@@ -64,60 +97,117 @@
     <t>Co-0</t>
   </si>
   <si>
+    <t>Heroin</t>
+  </si>
+  <si>
     <t>Batman</t>
   </si>
   <si>
     <t>Co-1</t>
   </si>
   <si>
+    <t>Hydrocodone</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
     <t>Big c</t>
   </si>
   <si>
     <t>Co-2</t>
   </si>
   <si>
+    <t>Klonopin</t>
+  </si>
+  <si>
+    <t>klon</t>
+  </si>
+  <si>
     <t>blow</t>
   </si>
   <si>
     <t>Co-3</t>
   </si>
   <si>
+    <t>LSDtrip</t>
+  </si>
+  <si>
+    <t>LSDtrip-1</t>
+  </si>
+  <si>
     <t>Candy</t>
   </si>
   <si>
     <t>Co-4</t>
   </si>
   <si>
+    <t>Marijuana</t>
+  </si>
+  <si>
+    <t>Marij</t>
+  </si>
+  <si>
     <t>Bolivian Marching Powder</t>
   </si>
   <si>
     <t>Co-5</t>
   </si>
   <si>
+    <t>Marijuana Concentrates</t>
+  </si>
+  <si>
+    <t>Marij-conc</t>
+  </si>
+  <si>
     <t>Coke</t>
   </si>
   <si>
     <t>Co-6</t>
   </si>
   <si>
+    <t>MDMA</t>
+  </si>
+  <si>
+    <t>MDMA-main</t>
+  </si>
+  <si>
     <t xml:space="preserve">snow </t>
   </si>
   <si>
     <t>Co-7</t>
   </si>
   <si>
+    <t>Mescaline</t>
+  </si>
+  <si>
+    <t>Mesc</t>
+  </si>
+  <si>
     <t>Stardust</t>
   </si>
   <si>
     <t>Co-8</t>
   </si>
   <si>
+    <t>Methamphetamine</t>
+  </si>
+  <si>
+    <t>Meth-main</t>
+  </si>
+  <si>
     <t>A-1</t>
   </si>
   <si>
     <t>Co-9</t>
   </si>
   <si>
+    <t>Mushrooms</t>
+  </si>
+  <si>
+    <t>Mush</t>
+  </si>
+  <si>
     <t>Crack Cocaine</t>
   </si>
   <si>
@@ -127,36 +217,60 @@
     <t>Cr-0</t>
   </si>
   <si>
+    <t>Opium</t>
+  </si>
+  <si>
     <t>151s</t>
   </si>
   <si>
     <t>Cr-1</t>
   </si>
   <si>
+    <t>Oxycodone</t>
+  </si>
+  <si>
+    <t>Oxy</t>
+  </si>
+  <si>
     <t>Crack</t>
   </si>
   <si>
     <t>Cr-2</t>
   </si>
   <si>
+    <t>PCP</t>
+  </si>
+  <si>
     <t>Dice</t>
   </si>
   <si>
     <t>Cr-3</t>
   </si>
   <si>
+    <t>percocet</t>
+  </si>
+  <si>
     <t>Sleet</t>
   </si>
   <si>
     <t>Cr-4</t>
   </si>
   <si>
+    <t>Peyote</t>
+  </si>
+  <si>
     <t>Sugar Block</t>
   </si>
   <si>
     <t>Cr-5</t>
   </si>
   <si>
+    <t>Promethazine with Codine</t>
+  </si>
+  <si>
+    <t>Pro-W-Cod</t>
+  </si>
+  <si>
     <t>Fentanyl</t>
   </si>
   <si>
@@ -166,24 +280,48 @@
     <t>Fe-0</t>
   </si>
   <si>
+    <t>Ritalin</t>
+  </si>
+  <si>
+    <t>Rit</t>
+  </si>
+  <si>
     <t>China Girl</t>
   </si>
   <si>
     <t>Fe-1</t>
   </si>
   <si>
+    <t>Synthetic Cannabiniods</t>
+  </si>
+  <si>
+    <t>Syn-Can</t>
+  </si>
+  <si>
     <t>China White</t>
   </si>
   <si>
     <t>Fe-2</t>
   </si>
   <si>
+    <t>Synthetic Cathinones</t>
+  </si>
+  <si>
+    <t>Syn-Cath</t>
+  </si>
+  <si>
     <t>Dance Fever</t>
   </si>
   <si>
     <t>Fe-3</t>
   </si>
   <si>
+    <t>Xanax</t>
+  </si>
+  <si>
+    <t>Xan</t>
+  </si>
+  <si>
     <t>Goodfella</t>
   </si>
   <si>
@@ -208,9 +346,6 @@
     <t>Fe-7</t>
   </si>
   <si>
-    <t>GHB</t>
-  </si>
-  <si>
     <t xml:space="preserve">G </t>
   </si>
   <si>
@@ -247,9 +382,6 @@
     <t>GH-6</t>
   </si>
   <si>
-    <t>Heroin</t>
-  </si>
-  <si>
     <t>A-bomb</t>
   </si>
   <si>
@@ -343,9 +475,6 @@
     <t>Hy -4</t>
   </si>
   <si>
-    <t>Hydro</t>
-  </si>
-  <si>
     <t>Hy -5</t>
   </si>
   <si>
@@ -442,9 +571,6 @@
     <t>Ke - 10</t>
   </si>
   <si>
-    <t>Klonopin</t>
-  </si>
-  <si>
     <t>K-Pin</t>
   </si>
   <si>
@@ -562,9 +688,6 @@
     <t>LS-15</t>
   </si>
   <si>
-    <t>Marijuana</t>
-  </si>
-  <si>
     <t>Ma-0</t>
   </si>
   <si>
@@ -658,9 +781,6 @@
     <t>Ma-15</t>
   </si>
   <si>
-    <t>Marijuana Concentrates</t>
-  </si>
-  <si>
     <t>Mar-Con-1</t>
   </si>
   <si>
@@ -712,9 +832,6 @@
     <t>Mar-Con-9</t>
   </si>
   <si>
-    <t>MDMA</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -781,9 +898,6 @@
     <t>MD-11</t>
   </si>
   <si>
-    <t>Mescaline</t>
-  </si>
-  <si>
     <t>Big chief</t>
   </si>
   <si>
@@ -844,9 +958,6 @@
     <t>Me-9</t>
   </si>
   <si>
-    <t>Methamphetamine</t>
-  </si>
-  <si>
     <t>Ice</t>
   </si>
   <si>
@@ -922,9 +1033,6 @@
     <t>Meth-13</t>
   </si>
   <si>
-    <t>Mushrooms</t>
-  </si>
-  <si>
     <t>Alice</t>
   </si>
   <si>
@@ -985,9 +1093,6 @@
     <t>Mu-10</t>
   </si>
   <si>
-    <t>Opium</t>
-  </si>
-  <si>
     <t>Joy Plant</t>
   </si>
   <si>
@@ -1069,9 +1174,6 @@
     <t>Op-13</t>
   </si>
   <si>
-    <t>Oxycodone</t>
-  </si>
-  <si>
     <t>30s</t>
   </si>
   <si>
@@ -1084,9 +1186,6 @@
     <t>oxy-2</t>
   </si>
   <si>
-    <t>Oxy</t>
-  </si>
-  <si>
     <t>oxy-3</t>
   </si>
   <si>
@@ -1114,9 +1213,6 @@
     <t>oxy-7</t>
   </si>
   <si>
-    <t>PCP</t>
-  </si>
-  <si>
     <t>Ace</t>
   </si>
   <si>
@@ -1240,9 +1336,6 @@
     <t>Per-8</t>
   </si>
   <si>
-    <t>Peyote</t>
-  </si>
-  <si>
     <t>Britton</t>
   </si>
   <si>
@@ -1342,9 +1435,6 @@
     <t>Pr-7</t>
   </si>
   <si>
-    <t>Ritalin</t>
-  </si>
-  <si>
     <t>Kibbles and Bits</t>
   </si>
   <si>
@@ -1411,9 +1501,6 @@
     <t>Can-9</t>
   </si>
   <si>
-    <t>Synthetic Cathinones</t>
-  </si>
-  <si>
     <t>Bloom</t>
   </si>
   <si>
@@ -1468,9 +1555,6 @@
     <t>Sy-Ca-10</t>
   </si>
   <si>
-    <t>Xanax</t>
-  </si>
-  <si>
     <t>Zanbars</t>
   </si>
   <si>
@@ -1547,78 +1631,6 @@
   </si>
   <si>
     <t>depression-1</t>
-  </si>
-  <si>
-    <t>amphetamine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cocaine </t>
-  </si>
-  <si>
-    <t>crack cocaine</t>
-  </si>
-  <si>
-    <t>crack-cocaine</t>
-  </si>
-  <si>
-    <t>fentanyl and fentanyl derivatives</t>
-  </si>
-  <si>
-    <t>fent-&amp;-fent-deriv</t>
-  </si>
-  <si>
-    <t>Hydrocodone</t>
-  </si>
-  <si>
-    <t>klon</t>
-  </si>
-  <si>
-    <t>LSDtrip</t>
-  </si>
-  <si>
-    <t>LSDtrip-1</t>
-  </si>
-  <si>
-    <t>Marij</t>
-  </si>
-  <si>
-    <t>Marij-conc</t>
-  </si>
-  <si>
-    <t>MDMA-main</t>
-  </si>
-  <si>
-    <t>Mesc</t>
-  </si>
-  <si>
-    <t>Meth-main</t>
-  </si>
-  <si>
-    <t>Mush</t>
-  </si>
-  <si>
-    <t>percocet</t>
-  </si>
-  <si>
-    <t>Promethazine with Codine</t>
-  </si>
-  <si>
-    <t>Pro-W-Cod</t>
-  </si>
-  <si>
-    <t>Rit</t>
-  </si>
-  <si>
-    <t>Synthetic Cannabiniods</t>
-  </si>
-  <si>
-    <t>Syn-Can</t>
-  </si>
-  <si>
-    <t>Syn-Cath</t>
-  </si>
-  <si>
-    <t>Xan</t>
   </si>
 </sst>
 </file>
@@ -1693,7 +1705,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1702,6 +1714,12 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1714,9 +1732,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1966,2872 +1981,2830 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>42</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>54</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>32</v>
+        <v>58</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>67</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>41</v>
+        <v>74</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>45</v>
+        <v>80</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>83</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>52</v>
+        <v>92</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>96</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>56</v>
+        <v>100</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>58</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>109</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>64</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>67</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>71</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>73</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>91</v>
+        <v>28</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>99</v>
+        <v>28</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>104</v>
+        <v>145</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>117</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>118</v>
+        <v>161</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>119</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>126</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>127</v>
+        <v>165</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>132</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>133</v>
+        <v>165</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>134</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>141</v>
+        <v>184</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>142</v>
+        <v>185</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>146</v>
+        <v>35</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B87" s="2">
         <v>420.0</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>184</v>
+        <v>225</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>186</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>187</v>
+        <v>228</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>188</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>190</v>
+        <v>231</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>191</v>
+        <v>232</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>197</v>
+        <v>238</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>198</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>199</v>
+        <v>240</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>183</v>
+        <v>43</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>213</v>
+        <v>254</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>214</v>
+        <v>255</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="B103" s="2">
         <v>246.0</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>245</v>
+        <v>284</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>249</v>
+        <v>288</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>250</v>
+        <v>289</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>253</v>
+        <v>292</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>233</v>
+        <v>51</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>255</v>
+        <v>294</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>262</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>265</v>
+        <v>303</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>266</v>
+        <v>304</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>267</v>
+        <v>305</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>271</v>
+        <v>309</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>272</v>
+        <v>310</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>274</v>
+        <v>312</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>256</v>
+        <v>55</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>276</v>
+        <v>314</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>285</v>
+        <v>59</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>322</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>303</v>
+        <v>63</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B167" s="5" t="s">
-        <v>346</v>
+        <v>68</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>348</v>
+        <v>383</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>349</v>
+        <v>384</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>324</v>
+        <v>68</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>352</v>
+        <v>71</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>352</v>
+        <v>71</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>352</v>
+        <v>71</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>357</v>
+        <v>72</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>358</v>
+        <v>391</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>352</v>
+        <v>71</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>360</v>
+        <v>393</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>352</v>
+        <v>71</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>361</v>
+        <v>394</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>362</v>
+        <v>395</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>352</v>
+        <v>71</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>363</v>
+        <v>396</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>364</v>
+        <v>397</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>352</v>
+        <v>71</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>365</v>
+        <v>398</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>369</v>
+        <v>401</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>371</v>
+        <v>403</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>373</v>
+        <v>405</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>375</v>
+        <v>407</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>377</v>
+        <v>409</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>379</v>
+        <v>411</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>381</v>
+        <v>413</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>367</v>
+        <v>75</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>391</v>
+        <v>423</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>393</v>
+        <v>425</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>394</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>395</v>
+        <v>427</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>397</v>
+        <v>429</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>398</v>
+        <v>430</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>399</v>
+        <v>431</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>400</v>
+        <v>432</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>402</v>
+        <v>434</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>404</v>
+        <v>436</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>407</v>
+        <v>439</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>408</v>
+        <v>440</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>409</v>
+        <v>81</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>443</v>
+        <v>89</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="B214" s="6">
+        <v>476</v>
+      </c>
+      <c r="B214" s="8">
         <v>45402.0</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>465</v>
+        <v>495</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>466</v>
+        <v>97</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>466</v>
+        <v>97</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>466</v>
+        <v>97</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>466</v>
+        <v>97</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>466</v>
+        <v>97</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>466</v>
+        <v>97</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>466</v>
+        <v>97</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>466</v>
+        <v>97</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>466</v>
+        <v>97</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>485</v>
+        <v>101</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>486</v>
+        <v>514</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>487</v>
+        <v>515</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>485</v>
+        <v>101</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>488</v>
+        <v>516</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>489</v>
+        <v>517</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>485</v>
+        <v>101</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>490</v>
+        <v>518</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>485</v>
+        <v>101</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>493</v>
+        <v>521</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>485</v>
+        <v>101</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>494</v>
+        <v>522</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>495</v>
+        <v>523</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>485</v>
+        <v>101</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>496</v>
+        <v>524</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>497</v>
+        <v>525</v>
       </c>
     </row>
     <row r="239">
-      <c r="B239" s="7" t="s">
-        <v>498</v>
+      <c r="B239" s="3" t="s">
+        <v>526</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>499</v>
+        <v>527</v>
       </c>
     </row>
     <row r="240">
-      <c r="B240" s="7" t="s">
-        <v>500</v>
+      <c r="B240" s="3" t="s">
+        <v>528</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>501</v>
+        <v>529</v>
       </c>
     </row>
     <row r="241">
-      <c r="B241" s="7" t="s">
-        <v>502</v>
+      <c r="B241" s="3" t="s">
+        <v>530</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
     </row>
     <row r="242">
-      <c r="B242" s="7" t="s">
-        <v>504</v>
+      <c r="B242" s="3" t="s">
+        <v>532</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
     </row>
     <row r="243">
-      <c r="B243" s="8" t="s">
-        <v>506</v>
+      <c r="B243" s="9" t="s">
+        <v>534</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="9"/>
-      <c r="B244" s="8" t="s">
-        <v>508</v>
+      <c r="A244" s="10"/>
+      <c r="B244" s="9" t="s">
+        <v>536</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="9"/>
-      <c r="B245" s="8" t="s">
-        <v>510</v>
+      <c r="A245" s="10"/>
+      <c r="B245" s="9" t="s">
+        <v>538</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="9"/>
-      <c r="B246" s="2" t="s">
-        <v>512</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="B247" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="B248" s="2" t="s">
-        <v>514</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="B249" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="B250" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="B251" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="B252" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="B253" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="B254" s="2" t="s">
-        <v>520</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="B255" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="B256" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="B257" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="B258" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="B259" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="B260" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="B261" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="B262" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="B263" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="B264" s="2" t="s">
-        <v>528</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="B265" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="B266" s="2" t="s">
-        <v>529</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="B267" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="C267" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="B268" s="2" t="s">
-        <v>532</v>
-      </c>
-      <c r="C268" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="B269" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="C269" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="B270" s="2" t="s">
-        <v>485</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>535</v>
-      </c>
+      <c r="A246" s="10"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C106">

--- a/lmolina3/src/utils/codes.xlsx
+++ b/lmolina3/src/utils/codes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="542">
   <si>
     <t>Drug name</t>
   </si>
@@ -67,16 +67,22 @@
     <t>crack-coca</t>
   </si>
   <si>
+    <t xml:space="preserve">fentanyl </t>
+  </si>
+  <si>
+    <t>fent</t>
+  </si>
+  <si>
     <t>Uppers</t>
   </si>
   <si>
     <t>Am-3</t>
   </si>
   <si>
-    <t>fentanyl and fentanyl derivatives</t>
-  </si>
-  <si>
-    <t>fent-&amp;-fent-deriv</t>
+    <t>fentanyl derivatives</t>
+  </si>
+  <si>
+    <t>fent-deriv</t>
   </si>
   <si>
     <t>Crosses</t>
@@ -2040,20 +2046,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -2061,372 +2061,378 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>87</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>105</v>
@@ -2437,7 +2443,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>107</v>
@@ -2448,7 +2454,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>109</v>
@@ -2459,7 +2465,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>111</v>
@@ -2470,7 +2476,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>113</v>
@@ -2481,7 +2487,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>115</v>
@@ -2492,7 +2498,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>117</v>
@@ -2503,7 +2509,7 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>119</v>
@@ -2514,7 +2520,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>121</v>
@@ -2525,7 +2531,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>123</v>
@@ -2536,7 +2542,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>125</v>
@@ -2547,7 +2553,7 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>127</v>
@@ -2558,7 +2564,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>129</v>
@@ -2569,7 +2575,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>131</v>
@@ -2580,7 +2586,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>133</v>
@@ -2591,9 +2597,9 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B43" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -2602,9 +2608,9 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="5" t="s">
         <v>137</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -2613,7 +2619,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>139</v>
@@ -2624,7 +2630,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>141</v>
@@ -2635,9 +2641,9 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -2646,20 +2652,20 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B49" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -2668,9 +2674,9 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="5" t="s">
         <v>150</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -2679,7 +2685,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>152</v>
@@ -2690,21 +2696,21 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>155</v>
+        <v>34</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>156</v>
@@ -2712,7 +2718,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>157</v>
@@ -2723,7 +2729,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>159</v>
@@ -2734,7 +2740,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>161</v>
@@ -2745,7 +2751,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>163</v>
@@ -2756,18 +2762,18 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>168</v>
@@ -2778,9 +2784,9 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B60" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C60" s="2" t="s">
@@ -2789,9 +2795,9 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B61" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>172</v>
       </c>
       <c r="C61" s="2" t="s">
@@ -2800,7 +2806,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>174</v>
@@ -2811,9 +2817,9 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B63" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C63" s="2" t="s">
@@ -2822,9 +2828,9 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>178</v>
       </c>
       <c r="C64" s="2" t="s">
@@ -2833,7 +2839,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>180</v>
@@ -2844,7 +2850,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>182</v>
@@ -2855,7 +2861,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>184</v>
@@ -2866,7 +2872,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>186</v>
@@ -2877,9 +2883,9 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C69" s="2" t="s">
@@ -2888,9 +2894,9 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B70" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>190</v>
       </c>
       <c r="C70" s="2" t="s">
@@ -2899,18 +2905,18 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>195</v>
@@ -2921,7 +2927,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>197</v>
@@ -2932,7 +2938,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>199</v>
@@ -2943,7 +2949,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>201</v>
@@ -2954,7 +2960,7 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>203</v>
@@ -2965,7 +2971,7 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>205</v>
@@ -2976,7 +2982,7 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>207</v>
@@ -2987,7 +2993,7 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>209</v>
@@ -2998,7 +3004,7 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>211</v>
@@ -3009,7 +3015,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>213</v>
@@ -3020,7 +3026,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>215</v>
@@ -3031,7 +3037,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>217</v>
@@ -3042,7 +3048,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>219</v>
@@ -3053,7 +3059,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>221</v>
@@ -3064,7 +3070,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>223</v>
@@ -3075,21 +3081,21 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B87" s="2">
-        <v>420.0</v>
+        <v>194</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>226</v>
+        <v>45</v>
+      </c>
+      <c r="B88" s="2">
+        <v>420.0</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>227</v>
@@ -3097,7 +3103,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>228</v>
@@ -3108,7 +3114,7 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>230</v>
@@ -3119,7 +3125,7 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>232</v>
@@ -3130,7 +3136,7 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>234</v>
@@ -3141,7 +3147,7 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>236</v>
@@ -3152,7 +3158,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>238</v>
@@ -3163,7 +3169,7 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>240</v>
@@ -3174,7 +3180,7 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>242</v>
@@ -3185,7 +3191,7 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>244</v>
@@ -3196,7 +3202,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>246</v>
@@ -3207,7 +3213,7 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>248</v>
@@ -3218,7 +3224,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>250</v>
@@ -3229,7 +3235,7 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>252</v>
@@ -3240,7 +3246,7 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>254</v>
@@ -3251,21 +3257,21 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B103" s="2">
-        <v>246.0</v>
+        <v>45</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>256</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>257</v>
+        <v>49</v>
+      </c>
+      <c r="B104" s="2">
+        <v>246.0</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>258</v>
@@ -3273,7 +3279,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>259</v>
@@ -3284,7 +3290,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>261</v>
@@ -3295,7 +3301,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>263</v>
@@ -3306,7 +3312,7 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>265</v>
@@ -3317,7 +3323,7 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>267</v>
@@ -3328,7 +3334,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>269</v>
@@ -3339,7 +3345,7 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>271</v>
@@ -3350,7 +3356,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>273</v>
@@ -3361,7 +3367,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>275</v>
@@ -3372,7 +3378,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>277</v>
@@ -3383,7 +3389,7 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>279</v>
@@ -3394,7 +3400,7 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>281</v>
@@ -3405,7 +3411,7 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>283</v>
@@ -3416,7 +3422,7 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>285</v>
@@ -3427,7 +3433,7 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>287</v>
@@ -3438,7 +3444,7 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>289</v>
@@ -3449,7 +3455,7 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>291</v>
@@ -3460,7 +3466,7 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>293</v>
@@ -3471,7 +3477,7 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>295</v>
@@ -3482,7 +3488,7 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>297</v>
@@ -3493,7 +3499,7 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>299</v>
@@ -3504,7 +3510,7 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>301</v>
@@ -3515,7 +3521,7 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>303</v>
@@ -3526,7 +3532,7 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>305</v>
@@ -3537,7 +3543,7 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>307</v>
@@ -3548,7 +3554,7 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>309</v>
@@ -3559,7 +3565,7 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>311</v>
@@ -3570,7 +3576,7 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>313</v>
@@ -3581,7 +3587,7 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>315</v>
@@ -3592,7 +3598,7 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>317</v>
@@ -3603,7 +3609,7 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>319</v>
@@ -3614,21 +3620,21 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>322</v>
+        <v>61</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>323</v>
@@ -3636,9 +3642,9 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B138" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B138" s="6" t="s">
         <v>324</v>
       </c>
       <c r="C138" s="2" t="s">
@@ -3647,7 +3653,7 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>326</v>
@@ -3658,7 +3664,7 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>328</v>
@@ -3669,7 +3675,7 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>330</v>
@@ -3680,7 +3686,7 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>332</v>
@@ -3691,7 +3697,7 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>334</v>
@@ -3702,7 +3708,7 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>336</v>
@@ -3713,7 +3719,7 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>338</v>
@@ -3724,7 +3730,7 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>340</v>
@@ -3735,7 +3741,7 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>342</v>
@@ -3746,7 +3752,7 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>344</v>
@@ -3757,7 +3763,7 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>346</v>
@@ -3768,7 +3774,7 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>348</v>
@@ -3779,7 +3785,7 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>350</v>
@@ -3790,7 +3796,7 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>352</v>
@@ -3801,7 +3807,7 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B153" s="2" t="s">
         <v>354</v>
@@ -3812,7 +3818,7 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>356</v>
@@ -3823,7 +3829,7 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>358</v>
@@ -3834,7 +3840,7 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B156" s="2" t="s">
         <v>360</v>
@@ -3845,7 +3851,7 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>362</v>
@@ -3856,7 +3862,7 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>364</v>
@@ -3867,7 +3873,7 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B159" s="2" t="s">
         <v>366</v>
@@ -3878,7 +3884,7 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>368</v>
@@ -3889,7 +3895,7 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>370</v>
@@ -3900,7 +3906,7 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>372</v>
@@ -3911,7 +3917,7 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>374</v>
@@ -3922,7 +3928,7 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>376</v>
@@ -3933,7 +3939,7 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>378</v>
@@ -3944,21 +3950,21 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B167" s="7" t="s">
-        <v>381</v>
+        <v>70</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>382</v>
@@ -3966,9 +3972,9 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B168" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B168" s="7" t="s">
         <v>383</v>
       </c>
       <c r="C168" s="2" t="s">
@@ -3977,7 +3983,7 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>385</v>
@@ -3988,7 +3994,7 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>387</v>
@@ -3999,7 +4005,7 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>389</v>
@@ -4010,21 +4016,21 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>72</v>
+        <v>391</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>392</v>
+        <v>74</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>393</v>
@@ -4032,7 +4038,7 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>394</v>
@@ -4043,7 +4049,7 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>396</v>
@@ -4054,7 +4060,7 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>398</v>
@@ -4065,7 +4071,7 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>400</v>
@@ -4076,7 +4082,7 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>402</v>
@@ -4087,7 +4093,7 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>404</v>
@@ -4098,7 +4104,7 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>406</v>
@@ -4109,7 +4115,7 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>408</v>
@@ -4120,7 +4126,7 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>410</v>
@@ -4131,7 +4137,7 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>412</v>
@@ -4142,7 +4148,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>414</v>
@@ -4153,7 +4159,7 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>416</v>
@@ -4164,7 +4170,7 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>418</v>
@@ -4175,7 +4181,7 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>420</v>
@@ -4186,7 +4192,7 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>422</v>
@@ -4197,18 +4203,18 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="C189" s="2" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>427</v>
@@ -4219,7 +4225,7 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>429</v>
@@ -4230,7 +4236,7 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>431</v>
@@ -4241,7 +4247,7 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>433</v>
@@ -4252,7 +4258,7 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>435</v>
@@ -4263,7 +4269,7 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>437</v>
@@ -4274,7 +4280,7 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>439</v>
@@ -4285,7 +4291,7 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>81</v>
+        <v>426</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>441</v>
@@ -4296,7 +4302,7 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>443</v>
@@ -4307,7 +4313,7 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>445</v>
@@ -4318,7 +4324,7 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>447</v>
@@ -4329,7 +4335,7 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>449</v>
@@ -4340,7 +4346,7 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B202" s="2" t="s">
         <v>451</v>
@@ -4351,7 +4357,7 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>453</v>
@@ -4362,7 +4368,7 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>455</v>
@@ -4373,7 +4379,7 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B205" s="2" t="s">
         <v>457</v>
@@ -4384,18 +4390,18 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="C206" s="2" t="s">
         <v>460</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>462</v>
@@ -4406,7 +4412,7 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>464</v>
@@ -4417,7 +4423,7 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>466</v>
@@ -4428,7 +4434,7 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>468</v>
@@ -4439,7 +4445,7 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>470</v>
@@ -4450,7 +4456,7 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>472</v>
@@ -4461,7 +4467,7 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>89</v>
+        <v>461</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>474</v>
@@ -4472,10 +4478,10 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>476</v>
-      </c>
-      <c r="B214" s="8">
-        <v>45402.0</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>477</v>
@@ -4483,10 +4489,10 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="B215" s="2" t="s">
         <v>478</v>
+      </c>
+      <c r="B215" s="8">
+        <v>45402.0</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>479</v>
@@ -4494,7 +4500,7 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>480</v>
@@ -4505,7 +4511,7 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>482</v>
@@ -4516,7 +4522,7 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>484</v>
@@ -4527,7 +4533,7 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>486</v>
@@ -4538,7 +4544,7 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>488</v>
@@ -4549,7 +4555,7 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>490</v>
@@ -4560,7 +4566,7 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>492</v>
@@ -4571,7 +4577,7 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>494</v>
@@ -4582,7 +4588,7 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>97</v>
+        <v>478</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>496</v>
@@ -4593,7 +4599,7 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>498</v>
@@ -4604,7 +4610,7 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>500</v>
@@ -4615,7 +4621,7 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>502</v>
@@ -4626,7 +4632,7 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>504</v>
@@ -4637,7 +4643,7 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>506</v>
@@ -4648,7 +4654,7 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>508</v>
@@ -4659,7 +4665,7 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>510</v>
@@ -4670,7 +4676,7 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B232" s="2" t="s">
         <v>512</v>
@@ -4681,7 +4687,7 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>514</v>
@@ -4692,7 +4698,7 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>516</v>
@@ -4703,7 +4709,7 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>518</v>
@@ -4714,7 +4720,7 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>520</v>
@@ -4725,7 +4731,7 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>522</v>
@@ -4736,7 +4742,7 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>524</v>
@@ -4746,7 +4752,10 @@
       </c>
     </row>
     <row r="239">
-      <c r="B239" s="3" t="s">
+      <c r="A239" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>526</v>
       </c>
       <c r="C239" s="2" t="s">
@@ -4778,7 +4787,7 @@
       </c>
     </row>
     <row r="243">
-      <c r="B243" s="9" t="s">
+      <c r="B243" s="3" t="s">
         <v>534</v>
       </c>
       <c r="C243" s="2" t="s">
@@ -4786,7 +4795,6 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="10"/>
       <c r="B244" s="9" t="s">
         <v>536</v>
       </c>
@@ -4805,11 +4813,20 @@
     </row>
     <row r="246">
       <c r="A246" s="10"/>
+      <c r="B246" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="10"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C106">
+  <conditionalFormatting sqref="C107">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(C106))&gt;0</formula>
+      <formula>LEN(TRIM(C107))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <drawing r:id="rId1"/>

--- a/lmolina3/src/utils/codes.xlsx
+++ b/lmolina3/src/utils/codes.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="601">
   <si>
     <t>Drug name</t>
   </si>
@@ -28,6 +28,18 @@
     <t>keyname_id</t>
   </si>
   <si>
+    <t>Original keyname</t>
+  </si>
+  <si>
+    <t>orginal key-id</t>
+  </si>
+  <si>
+    <t>hastag</t>
+  </si>
+  <si>
+    <t>hastag_key</t>
+  </si>
+  <si>
     <t>Amphetamine</t>
   </si>
   <si>
@@ -37,10 +49,19 @@
     <t>Am-0</t>
   </si>
   <si>
+    <t>dexies</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
     <t>amphetamine</t>
   </si>
   <si>
-    <t>amp</t>
+    <t>#ecstasy</t>
+  </si>
+  <si>
+    <t>ecstasy-tag</t>
   </si>
   <si>
     <t>Black Beauties</t>
@@ -49,28 +70,61 @@
     <t>Am-1</t>
   </si>
   <si>
+    <t>ketshards</t>
+  </si>
+  <si>
+    <t>shards</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cocaine </t>
   </si>
   <si>
     <t>Coca</t>
   </si>
   <si>
+    <t>#xtc</t>
+  </si>
+  <si>
+    <t>xtc-tag</t>
+  </si>
+  <si>
     <t>Speed</t>
   </si>
   <si>
     <t>Am-2</t>
   </si>
   <si>
+    <t>coketwt</t>
+  </si>
+  <si>
+    <t>coke</t>
+  </si>
+  <si>
     <t>crack cocaine</t>
   </si>
   <si>
     <t>crack-coca</t>
   </si>
   <si>
+    <t>#pills</t>
+  </si>
+  <si>
+    <t>pill-tag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">breath mint fent </t>
+  </si>
+  <si>
+    <t>fent</t>
+  </si>
+  <si>
     <t xml:space="preserve">fentanyl </t>
   </si>
   <si>
-    <t>fent</t>
+    <t>#cocaine</t>
+  </si>
+  <si>
+    <t>cocaine-tag</t>
   </si>
   <si>
     <t>Uppers</t>
@@ -79,10 +133,19 @@
     <t>Am-3</t>
   </si>
   <si>
+    <t>oxy 60s</t>
+  </si>
+  <si>
+    <t>fent-deriv</t>
+  </si>
+  <si>
     <t>fentanyl derivatives</t>
   </si>
   <si>
-    <t>fent-deriv</t>
+    <t>#lsd</t>
+  </si>
+  <si>
+    <t>lsd-tag</t>
   </si>
   <si>
     <t>Crosses</t>
@@ -91,9 +154,18 @@
     <t>Am-4</t>
   </si>
   <si>
+    <t xml:space="preserve">ghb </t>
+  </si>
+  <si>
     <t>GHB</t>
   </si>
   <si>
+    <t>#weedGod</t>
+  </si>
+  <si>
+    <t>weed1-tag</t>
+  </si>
+  <si>
     <t>Cocaine</t>
   </si>
   <si>
@@ -103,19 +175,37 @@
     <t>Co-0</t>
   </si>
   <si>
+    <t>#heroin</t>
+  </si>
+  <si>
     <t>Heroin</t>
   </si>
   <si>
+    <t>#Edibles</t>
+  </si>
+  <si>
+    <t>edibles-tag</t>
+  </si>
+  <si>
     <t>Batman</t>
   </si>
   <si>
     <t>Co-1</t>
   </si>
   <si>
+    <t>hyrocodone</t>
+  </si>
+  <si>
+    <t>Hydro</t>
+  </si>
+  <si>
     <t>Hydrocodone</t>
   </si>
   <si>
-    <t>Hydro</t>
+    <t>#gummies</t>
+  </si>
+  <si>
+    <t>gum-tag</t>
   </si>
   <si>
     <t>Big c</t>
@@ -124,34 +214,67 @@
     <t>Co-2</t>
   </si>
   <si>
+    <t>ket bars</t>
+  </si>
+  <si>
+    <t>bars</t>
+  </si>
+  <si>
     <t>Klonopin</t>
   </si>
   <si>
     <t>klon</t>
   </si>
   <si>
+    <t>#thc</t>
+  </si>
+  <si>
+    <t>thc-tag</t>
+  </si>
+  <si>
     <t>blow</t>
   </si>
   <si>
     <t>Co-3</t>
   </si>
   <si>
+    <t xml:space="preserve">lsd pills </t>
+  </si>
+  <si>
+    <t>lsd</t>
+  </si>
+  <si>
     <t>LSDtrip</t>
   </si>
   <si>
     <t>LSDtrip-1</t>
   </si>
   <si>
+    <t>#cannabis</t>
+  </si>
+  <si>
+    <t>can-tag</t>
+  </si>
+  <si>
     <t>Candy</t>
   </si>
   <si>
     <t>Co-4</t>
   </si>
   <si>
+    <t xml:space="preserve">kush sale </t>
+  </si>
+  <si>
+    <t>Marij</t>
+  </si>
+  <si>
     <t>Marijuana</t>
   </si>
   <si>
-    <t>Marij</t>
+    <t>#weedlife</t>
+  </si>
+  <si>
+    <t>weed2-tag</t>
   </si>
   <si>
     <t>Bolivian Marching Powder</t>
@@ -160,10 +283,19 @@
     <t>Co-5</t>
   </si>
   <si>
+    <t>doseeds</t>
+  </si>
+  <si>
+    <t>Marij-conc</t>
+  </si>
+  <si>
     <t>Marijuana Concentrates</t>
   </si>
   <si>
-    <t>Marij-conc</t>
+    <t>#ecstacy</t>
+  </si>
+  <si>
+    <t>ecstacy-tag</t>
   </si>
   <si>
     <t>Coke</t>
@@ -172,1393 +304,1438 @@
     <t>Co-6</t>
   </si>
   <si>
+    <t xml:space="preserve">mdma pills </t>
+  </si>
+  <si>
+    <t>mdma</t>
+  </si>
+  <si>
     <t>MDMA</t>
   </si>
   <si>
     <t>MDMA-main</t>
   </si>
   <si>
+    <t>#shroom</t>
+  </si>
+  <si>
+    <t>shroom-tag</t>
+  </si>
+  <si>
     <t xml:space="preserve">snow </t>
   </si>
   <si>
     <t>Co-7</t>
   </si>
   <si>
+    <t>mescaline plug</t>
+  </si>
+  <si>
+    <t>Mesc</t>
+  </si>
+  <si>
+    <t>#pyschedelics</t>
+  </si>
+  <si>
+    <t>pysch-tag</t>
+  </si>
+  <si>
+    <t>Stardust</t>
+  </si>
+  <si>
+    <t>Co-8</t>
+  </si>
+  <si>
+    <t>meth plug</t>
+  </si>
+  <si>
+    <t>Meth-main</t>
+  </si>
+  <si>
+    <t>A-1</t>
+  </si>
+  <si>
+    <t>Co-9</t>
+  </si>
+  <si>
+    <t>shrooms</t>
+  </si>
+  <si>
+    <t>Mush</t>
+  </si>
+  <si>
+    <t>Crack Cocaine</t>
+  </si>
+  <si>
+    <t>51s</t>
+  </si>
+  <si>
+    <t>Cr-0</t>
+  </si>
+  <si>
+    <t>opium</t>
+  </si>
+  <si>
+    <t>Opium</t>
+  </si>
+  <si>
+    <t>151s</t>
+  </si>
+  <si>
+    <t>Cr-1</t>
+  </si>
+  <si>
+    <t>oxycodone</t>
+  </si>
+  <si>
+    <t>Oxy</t>
+  </si>
+  <si>
+    <t>Crack</t>
+  </si>
+  <si>
+    <t>Cr-2</t>
+  </si>
+  <si>
+    <t>PCP</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>Cr-3</t>
+  </si>
+  <si>
+    <t>m30s</t>
+  </si>
+  <si>
+    <t>percocet</t>
+  </si>
+  <si>
+    <t>Sleet</t>
+  </si>
+  <si>
+    <t>Cr-4</t>
+  </si>
+  <si>
+    <t>Peyote</t>
+  </si>
+  <si>
+    <t>Sugar Block</t>
+  </si>
+  <si>
+    <t>Cr-5</t>
+  </si>
+  <si>
+    <t>Promethazine with Codeine</t>
+  </si>
+  <si>
+    <t>Pro-W-Cod</t>
+  </si>
+  <si>
+    <t>Fentanyl</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>Fe-0</t>
+  </si>
+  <si>
+    <t>psychedilics plug</t>
+  </si>
+  <si>
+    <t>Psy</t>
+  </si>
+  <si>
+    <t>China Girl</t>
+  </si>
+  <si>
+    <t>Fe-1</t>
+  </si>
+  <si>
+    <t>pineapple express</t>
+  </si>
+  <si>
+    <t>Syn-Can</t>
+  </si>
+  <si>
+    <t>China White</t>
+  </si>
+  <si>
+    <t>Fe-2</t>
+  </si>
+  <si>
+    <t>flakka</t>
+  </si>
+  <si>
+    <t>Syn-Cath</t>
+  </si>
+  <si>
+    <t>Dance Fever</t>
+  </si>
+  <si>
+    <t>Fe-3</t>
+  </si>
+  <si>
+    <t>xanax plug</t>
+  </si>
+  <si>
+    <t>Xan</t>
+  </si>
+  <si>
+    <t>Goodfella</t>
+  </si>
+  <si>
+    <t>Fe-4</t>
+  </si>
+  <si>
+    <t>Jackpot</t>
+  </si>
+  <si>
+    <t>Fe-5</t>
+  </si>
+  <si>
+    <t>Murder 8</t>
+  </si>
+  <si>
+    <t>Fe-6</t>
+  </si>
+  <si>
+    <t>TNT</t>
+  </si>
+  <si>
+    <t>Fe-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G </t>
+  </si>
+  <si>
+    <t>GH-0</t>
+  </si>
+  <si>
+    <t>GEEB</t>
+  </si>
+  <si>
+    <t>GH-1</t>
+  </si>
+  <si>
+    <t>Georgia Home Boy</t>
+  </si>
+  <si>
+    <t>GH-2</t>
+  </si>
+  <si>
+    <t>Liquid E</t>
+  </si>
+  <si>
+    <t>GH-4</t>
+  </si>
+  <si>
+    <t>Liquid X</t>
+  </si>
+  <si>
+    <t>GH-5</t>
+  </si>
+  <si>
+    <t>Scoop</t>
+  </si>
+  <si>
+    <t>GH-6</t>
+  </si>
+  <si>
+    <t>A-bomb</t>
+  </si>
+  <si>
+    <t>He-0</t>
+  </si>
+  <si>
+    <t>Black Pearl</t>
+  </si>
+  <si>
+    <t>He-1</t>
+  </si>
+  <si>
+    <t>Beast</t>
+  </si>
+  <si>
+    <t>He-2</t>
+  </si>
+  <si>
+    <t>Blow Dope</t>
+  </si>
+  <si>
+    <t>He-3</t>
+  </si>
+  <si>
+    <t>Bombs Away</t>
+  </si>
+  <si>
+    <t>He-4</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>He-5</t>
+  </si>
+  <si>
+    <t>Dirt</t>
+  </si>
+  <si>
+    <t>He-6</t>
+  </si>
+  <si>
+    <t>White Junk</t>
+  </si>
+  <si>
+    <t>He-7</t>
+  </si>
+  <si>
+    <t>White Nurse</t>
+  </si>
+  <si>
+    <t>He-8</t>
+  </si>
+  <si>
+    <t>Fairy Dust</t>
+  </si>
+  <si>
+    <t>He-9</t>
+  </si>
+  <si>
+    <t>Trees</t>
+  </si>
+  <si>
+    <t>He-10</t>
+  </si>
+  <si>
+    <t>Hyrocodone</t>
+  </si>
+  <si>
+    <t>357s</t>
+  </si>
+  <si>
+    <t>Hy -1</t>
+  </si>
+  <si>
+    <t>Bananas</t>
+  </si>
+  <si>
+    <t>Hy -2</t>
+  </si>
+  <si>
+    <t>Dro</t>
+  </si>
+  <si>
+    <t>Hy -3</t>
+  </si>
+  <si>
+    <t>Fluff</t>
+  </si>
+  <si>
+    <t>Hy -4</t>
+  </si>
+  <si>
+    <t>Hy -5</t>
+  </si>
+  <si>
+    <t>Tabs</t>
+  </si>
+  <si>
+    <t>Hy -6</t>
+  </si>
+  <si>
+    <t>Norco</t>
+  </si>
+  <si>
+    <t>Hy -7</t>
+  </si>
+  <si>
+    <t>Vics</t>
+  </si>
+  <si>
+    <t>Hy -8</t>
+  </si>
+  <si>
+    <t>Vikes</t>
+  </si>
+  <si>
+    <t>Hy -9</t>
+  </si>
+  <si>
+    <t>Watsons</t>
+  </si>
+  <si>
+    <t>Hy -10</t>
+  </si>
+  <si>
+    <t>Ketamine</t>
+  </si>
+  <si>
+    <t>Blind Squid</t>
+  </si>
+  <si>
+    <t>Ke - 1</t>
+  </si>
+  <si>
+    <t>Cat Valium</t>
+  </si>
+  <si>
+    <t>Ke - 2</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Ke - 3</t>
+  </si>
+  <si>
+    <t>Honey Oil</t>
+  </si>
+  <si>
+    <t>Ke - 4</t>
+  </si>
+  <si>
+    <t>Jet</t>
+  </si>
+  <si>
+    <t>Ke - 5</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Ke - 6</t>
+  </si>
+  <si>
+    <t>K-hold</t>
+  </si>
+  <si>
+    <t>Ke - 7</t>
+  </si>
+  <si>
+    <t>Kelly's Day</t>
+  </si>
+  <si>
+    <t>Ke - 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Special K </t>
+  </si>
+  <si>
+    <t>Ke - 9</t>
+  </si>
+  <si>
+    <t>Super Acid</t>
+  </si>
+  <si>
+    <t>Ke - 10</t>
+  </si>
+  <si>
+    <t>K-Pin</t>
+  </si>
+  <si>
+    <t>Kl-1</t>
+  </si>
+  <si>
+    <t>Pin</t>
+  </si>
+  <si>
+    <t>Kl-2</t>
+  </si>
+  <si>
+    <t>Super Valium</t>
+  </si>
+  <si>
+    <t>Kl-3</t>
+  </si>
+  <si>
+    <t>LSD</t>
+  </si>
+  <si>
+    <t>Acid</t>
+  </si>
+  <si>
+    <t>LS-0</t>
+  </si>
+  <si>
+    <t>Mind Detergent</t>
+  </si>
+  <si>
+    <t>LS-1</t>
+  </si>
+  <si>
+    <t>Blue Cheer</t>
+  </si>
+  <si>
+    <t>LS-2</t>
+  </si>
+  <si>
+    <t>Blue Star</t>
+  </si>
+  <si>
+    <t>LS-3</t>
+  </si>
+  <si>
+    <t>Blotter Acid</t>
+  </si>
+  <si>
+    <t>LS-4</t>
+  </si>
+  <si>
+    <t>Dots</t>
+  </si>
+  <si>
+    <t>LS-5</t>
+  </si>
+  <si>
+    <t>Sugar Cubes</t>
+  </si>
+  <si>
+    <t>LS-6</t>
+  </si>
+  <si>
+    <t>Uncle Sid</t>
+  </si>
+  <si>
+    <t>LS-7</t>
+  </si>
+  <si>
+    <t>Pink Witches</t>
+  </si>
+  <si>
+    <t>LS-8</t>
+  </si>
+  <si>
+    <t>Ticket</t>
+  </si>
+  <si>
+    <t>LS-9</t>
+  </si>
+  <si>
+    <t>Purple Barrels</t>
+  </si>
+  <si>
+    <t>LS-10</t>
+  </si>
+  <si>
+    <t>Headlights</t>
+  </si>
+  <si>
+    <t>LS-11</t>
+  </si>
+  <si>
+    <t>Tail Lights</t>
+  </si>
+  <si>
+    <t>LS-12</t>
+  </si>
+  <si>
+    <t>Wedge</t>
+  </si>
+  <si>
+    <t>LS-13</t>
+  </si>
+  <si>
+    <t>White Lightening</t>
+  </si>
+  <si>
+    <t>LS-14</t>
+  </si>
+  <si>
+    <t>El Cid</t>
+  </si>
+  <si>
+    <t>LS-15</t>
+  </si>
+  <si>
+    <t>Ma-0</t>
+  </si>
+  <si>
+    <t>Broccoli</t>
+  </si>
+  <si>
+    <t>Ma-1</t>
+  </si>
+  <si>
+    <t>Bud</t>
+  </si>
+  <si>
+    <t>Ma-2</t>
+  </si>
+  <si>
+    <t>Texas Tea</t>
+  </si>
+  <si>
+    <t>Ma-3</t>
+  </si>
+  <si>
+    <t>Blondie</t>
+  </si>
+  <si>
+    <t>Ma-4</t>
+  </si>
+  <si>
+    <t>Chicago Green</t>
+  </si>
+  <si>
+    <t>Ma-5</t>
+  </si>
+  <si>
+    <t>Girl Scout Cookies</t>
+  </si>
+  <si>
+    <t>Ma-6</t>
+  </si>
+  <si>
+    <t>Gorilla</t>
+  </si>
+  <si>
+    <t>Ma-7</t>
+  </si>
+  <si>
+    <t>Green Eyed Girl</t>
+  </si>
+  <si>
+    <t>Ma-8</t>
+  </si>
+  <si>
+    <t>Grass</t>
+  </si>
+  <si>
+    <t>Ma-9</t>
+  </si>
+  <si>
+    <t>Manhattan Silver</t>
+  </si>
+  <si>
+    <t>Ma-10</t>
+  </si>
+  <si>
+    <t>Puff</t>
+  </si>
+  <si>
+    <t>Ma-11</t>
+  </si>
+  <si>
+    <t>Reefer</t>
+  </si>
+  <si>
+    <t>Ma-12</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Ma-13</t>
+  </si>
+  <si>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>Ma-14</t>
+  </si>
+  <si>
+    <t>Weed</t>
+  </si>
+  <si>
+    <t>Ma-15</t>
+  </si>
+  <si>
+    <t>Mar-Con-1</t>
+  </si>
+  <si>
+    <t>BHO</t>
+  </si>
+  <si>
+    <t>Mar-Con-2</t>
+  </si>
+  <si>
+    <t>Badder</t>
+  </si>
+  <si>
+    <t>Mar-Con-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budder </t>
+  </si>
+  <si>
+    <t>Mar-Con-4</t>
+  </si>
+  <si>
+    <t>Butter</t>
+  </si>
+  <si>
+    <t>Mar-Con-5</t>
+  </si>
+  <si>
+    <t>Dabs</t>
+  </si>
+  <si>
+    <t>Mar-Con-6</t>
+  </si>
+  <si>
+    <t>Ear Wax</t>
+  </si>
+  <si>
+    <t>Mar-Con-7</t>
+  </si>
+  <si>
+    <t>Errl</t>
+  </si>
+  <si>
+    <t>Mar-Con-8</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>Mar-Con-9</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>MD-1</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>MD-2</t>
+  </si>
+  <si>
+    <t>XTC</t>
+  </si>
+  <si>
+    <t>MD-3</t>
+  </si>
+  <si>
+    <t>Bean</t>
+  </si>
+  <si>
+    <t>MD-4</t>
+  </si>
+  <si>
+    <t>Love Drug</t>
+  </si>
+  <si>
+    <t>MD-5</t>
+  </si>
+  <si>
+    <t>Dancing Shoes</t>
+  </si>
+  <si>
+    <t>MD-6</t>
+  </si>
+  <si>
+    <t>Roll</t>
+  </si>
+  <si>
+    <t>MD-7</t>
+  </si>
+  <si>
+    <t>Clarity</t>
+  </si>
+  <si>
+    <t>MD-8</t>
+  </si>
+  <si>
+    <t>Scooby Snacks</t>
+  </si>
+  <si>
+    <t>MD-9</t>
+  </si>
+  <si>
+    <t>Molly</t>
+  </si>
+  <si>
+    <t>MD-10</t>
+  </si>
+  <si>
+    <t>Skittle</t>
+  </si>
+  <si>
+    <t>MD-11</t>
+  </si>
+  <si>
     <t>Mescaline</t>
   </si>
   <si>
-    <t>Mesc</t>
-  </si>
-  <si>
-    <t>Stardust</t>
-  </si>
-  <si>
-    <t>Co-8</t>
+    <t>Big chief</t>
+  </si>
+  <si>
+    <t>Me-0</t>
+  </si>
+  <si>
+    <t>Blue Caps</t>
+  </si>
+  <si>
+    <t>Me-1</t>
+  </si>
+  <si>
+    <t>Buttons</t>
+  </si>
+  <si>
+    <t>Me-2</t>
+  </si>
+  <si>
+    <t>Cactus</t>
+  </si>
+  <si>
+    <t>Me-3</t>
+  </si>
+  <si>
+    <t>Media Luna</t>
+  </si>
+  <si>
+    <t>Me-4</t>
+  </si>
+  <si>
+    <t>Mescal</t>
+  </si>
+  <si>
+    <t>Me-5</t>
+  </si>
+  <si>
+    <t>Mezcakuba</t>
+  </si>
+  <si>
+    <t>Me-6</t>
+  </si>
+  <si>
+    <t>Moon</t>
+  </si>
+  <si>
+    <t>Me-7</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>Me-8</t>
+  </si>
+  <si>
+    <t>Topi</t>
+  </si>
+  <si>
+    <t>Me-9</t>
   </si>
   <si>
     <t>Methamphetamine</t>
   </si>
   <si>
-    <t>Meth-main</t>
-  </si>
-  <si>
-    <t>A-1</t>
-  </si>
-  <si>
-    <t>Co-9</t>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Meth-1</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Meth-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal </t>
+  </si>
+  <si>
+    <t>Meth-3</t>
+  </si>
+  <si>
+    <t>Meth-4</t>
+  </si>
+  <si>
+    <t>Chalk</t>
+  </si>
+  <si>
+    <t>Meth-5</t>
+  </si>
+  <si>
+    <t>Wash</t>
+  </si>
+  <si>
+    <t>Meth-6</t>
+  </si>
+  <si>
+    <t>Meth</t>
+  </si>
+  <si>
+    <t>Meth-7</t>
+  </si>
+  <si>
+    <t>Hot ice</t>
+  </si>
+  <si>
+    <t>Meth-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice </t>
+  </si>
+  <si>
+    <t>Meth-9</t>
+  </si>
+  <si>
+    <t>Colorado Rockies</t>
+  </si>
+  <si>
+    <t>Meth-10</t>
+  </si>
+  <si>
+    <t>Mexican Crack</t>
+  </si>
+  <si>
+    <t>Meth-11</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Meth-12</t>
+  </si>
+  <si>
+    <t>Shaved Ice</t>
+  </si>
+  <si>
+    <t>Meth-13</t>
   </si>
   <si>
     <t>Mushrooms</t>
   </si>
   <si>
-    <t>Mush</t>
-  </si>
-  <si>
-    <t>Crack Cocaine</t>
-  </si>
-  <si>
-    <t>51s</t>
-  </si>
-  <si>
-    <t>Cr-0</t>
-  </si>
-  <si>
-    <t>Opium</t>
-  </si>
-  <si>
-    <t>151s</t>
-  </si>
-  <si>
-    <t>Cr-1</t>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Mu-0</t>
+  </si>
+  <si>
+    <t>Boomers</t>
+  </si>
+  <si>
+    <t>Mu-1</t>
+  </si>
+  <si>
+    <t>Caps</t>
+  </si>
+  <si>
+    <t>Mu-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Champiñones</t>
+  </si>
+  <si>
+    <t>Mu-4</t>
+  </si>
+  <si>
+    <t>Hongos</t>
+  </si>
+  <si>
+    <t>Mu-5</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t>Mu-6</t>
+  </si>
+  <si>
+    <t>Mushies</t>
+  </si>
+  <si>
+    <t>Mu-7</t>
+  </si>
+  <si>
+    <t>Pizza Toppings</t>
+  </si>
+  <si>
+    <t>Mu-8</t>
+  </si>
+  <si>
+    <t>Shrooms</t>
+  </si>
+  <si>
+    <t>Mu-9</t>
+  </si>
+  <si>
+    <t>Tweezes</t>
+  </si>
+  <si>
+    <t>Mu-10</t>
+  </si>
+  <si>
+    <t>Joy Plant</t>
+  </si>
+  <si>
+    <t>Op-0</t>
+  </si>
+  <si>
+    <t>Big O</t>
+  </si>
+  <si>
+    <t>Op-1</t>
+  </si>
+  <si>
+    <t>Black Russian</t>
+  </si>
+  <si>
+    <t>Op-2</t>
+  </si>
+  <si>
+    <t>Dream Gum</t>
+  </si>
+  <si>
+    <t>Op-3</t>
+  </si>
+  <si>
+    <t>Goma</t>
+  </si>
+  <si>
+    <t>Op-4</t>
+  </si>
+  <si>
+    <t>Gondola</t>
+  </si>
+  <si>
+    <t>Op-5</t>
+  </si>
+  <si>
+    <t>Dream stick</t>
+  </si>
+  <si>
+    <t>Op-6</t>
+  </si>
+  <si>
+    <t>Hops</t>
+  </si>
+  <si>
+    <t>Op-7</t>
+  </si>
+  <si>
+    <t>Skee</t>
+  </si>
+  <si>
+    <t>Op-8</t>
+  </si>
+  <si>
+    <t>Toxy</t>
+  </si>
+  <si>
+    <t>Op-9</t>
+  </si>
+  <si>
+    <t>Op-10</t>
+  </si>
+  <si>
+    <t>Midnight Oil</t>
+  </si>
+  <si>
+    <t>Op-11</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Op-12</t>
+  </si>
+  <si>
+    <t>Pin Yen</t>
+  </si>
+  <si>
+    <t>Op-13</t>
   </si>
   <si>
     <t>Oxycodone</t>
   </si>
   <si>
-    <t>Oxy</t>
-  </si>
-  <si>
-    <t>Crack</t>
-  </si>
-  <si>
-    <t>Cr-2</t>
-  </si>
-  <si>
-    <t>PCP</t>
-  </si>
-  <si>
-    <t>Dice</t>
-  </si>
-  <si>
-    <t>Cr-3</t>
-  </si>
-  <si>
-    <t>percocet</t>
-  </si>
-  <si>
-    <t>Sleet</t>
-  </si>
-  <si>
-    <t>Cr-4</t>
-  </si>
-  <si>
-    <t>Peyote</t>
-  </si>
-  <si>
-    <t>Sugar Block</t>
-  </si>
-  <si>
-    <t>Cr-5</t>
-  </si>
-  <si>
-    <t>Promethazine with Codine</t>
-  </si>
-  <si>
-    <t>Pro-W-Cod</t>
-  </si>
-  <si>
-    <t>Fentanyl</t>
-  </si>
-  <si>
-    <t>Apache</t>
-  </si>
-  <si>
-    <t>Fe-0</t>
+    <t>30s</t>
+  </si>
+  <si>
+    <t>oxy-1</t>
+  </si>
+  <si>
+    <t>40s</t>
+  </si>
+  <si>
+    <t>oxy-2</t>
+  </si>
+  <si>
+    <t>oxy-3</t>
+  </si>
+  <si>
+    <t>Beans</t>
+  </si>
+  <si>
+    <t>oxy-4</t>
+  </si>
+  <si>
+    <t>Blues</t>
+  </si>
+  <si>
+    <t>oxy-5</t>
+  </si>
+  <si>
+    <t>whites</t>
+  </si>
+  <si>
+    <t>oxy-6</t>
+  </si>
+  <si>
+    <t>O.C</t>
+  </si>
+  <si>
+    <t>oxy-7</t>
+  </si>
+  <si>
+    <t>Ace</t>
+  </si>
+  <si>
+    <t>PC-0</t>
+  </si>
+  <si>
+    <t>Angel Dust</t>
+  </si>
+  <si>
+    <t>PC-1</t>
+  </si>
+  <si>
+    <t>Purple Rain</t>
+  </si>
+  <si>
+    <t>PC-2</t>
+  </si>
+  <si>
+    <t>Red Devil</t>
+  </si>
+  <si>
+    <t>PC-3</t>
+  </si>
+  <si>
+    <t>Rocket Fuel</t>
+  </si>
+  <si>
+    <t>PC-4</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>PC-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zoom </t>
+  </si>
+  <si>
+    <t>PC-6</t>
+  </si>
+  <si>
+    <t>Space</t>
+  </si>
+  <si>
+    <t>PC-7</t>
+  </si>
+  <si>
+    <t>Yellow Fever</t>
+  </si>
+  <si>
+    <t>PC-8</t>
+  </si>
+  <si>
+    <t>Venom</t>
+  </si>
+  <si>
+    <t>PC-9</t>
+  </si>
+  <si>
+    <t>Monkey Dust</t>
+  </si>
+  <si>
+    <t>PC-10</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>PC-11</t>
+  </si>
+  <si>
+    <t>Percocet</t>
+  </si>
+  <si>
+    <t>512s</t>
+  </si>
+  <si>
+    <t>Per-1</t>
+  </si>
+  <si>
+    <t>kickers</t>
+  </si>
+  <si>
+    <t>Per-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hillbilly Heroin </t>
+  </si>
+  <si>
+    <t>Per-3</t>
+  </si>
+  <si>
+    <t>M-30s</t>
+  </si>
+  <si>
+    <t>Per-4</t>
+  </si>
+  <si>
+    <t>Percs</t>
+  </si>
+  <si>
+    <t>Per-5</t>
+  </si>
+  <si>
+    <t>Rims</t>
+  </si>
+  <si>
+    <t>Per-6</t>
+  </si>
+  <si>
+    <t>Tires</t>
+  </si>
+  <si>
+    <t>Per-7</t>
+  </si>
+  <si>
+    <t>Wheels</t>
+  </si>
+  <si>
+    <t>Per-8</t>
+  </si>
+  <si>
+    <t>Britton</t>
+  </si>
+  <si>
+    <t>Pey-1</t>
+  </si>
+  <si>
+    <t>Half Moon</t>
+  </si>
+  <si>
+    <t>Pey-2</t>
+  </si>
+  <si>
+    <t>Hikori</t>
+  </si>
+  <si>
+    <t>Pey-3</t>
+  </si>
+  <si>
+    <t>Hikuli</t>
+  </si>
+  <si>
+    <t>Pey-4</t>
+  </si>
+  <si>
+    <t>Hyatari</t>
+  </si>
+  <si>
+    <t>Pey-5</t>
+  </si>
+  <si>
+    <t>Nubs</t>
+  </si>
+  <si>
+    <t>Pey-6</t>
+  </si>
+  <si>
+    <t>Seni</t>
+  </si>
+  <si>
+    <t>Pey-7</t>
+  </si>
+  <si>
+    <t>Tops</t>
+  </si>
+  <si>
+    <t>Pey-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Button </t>
+  </si>
+  <si>
+    <t>Pey-9</t>
+  </si>
+  <si>
+    <t>Promethazine With Codeine</t>
+  </si>
+  <si>
+    <t>Act</t>
+  </si>
+  <si>
+    <t>Pr-0</t>
+  </si>
+  <si>
+    <t>Drank</t>
+  </si>
+  <si>
+    <t>Pr-1</t>
+  </si>
+  <si>
+    <t>Lean</t>
+  </si>
+  <si>
+    <t>Pr-2</t>
+  </si>
+  <si>
+    <t>Purple Drank</t>
+  </si>
+  <si>
+    <t>Pr-4</t>
+  </si>
+  <si>
+    <t>Sizurup</t>
+  </si>
+  <si>
+    <t>Pr-5</t>
+  </si>
+  <si>
+    <t>Sizzurp</t>
+  </si>
+  <si>
+    <t>Pr-6</t>
+  </si>
+  <si>
+    <t>Syrup</t>
+  </si>
+  <si>
+    <t>Pr-7</t>
   </si>
   <si>
     <t>Ritalin</t>
   </si>
   <si>
-    <t>Rit</t>
-  </si>
-  <si>
-    <t>China Girl</t>
-  </si>
-  <si>
-    <t>Fe-1</t>
-  </si>
-  <si>
-    <t>Synthetic Cannabiniods</t>
-  </si>
-  <si>
-    <t>Syn-Can</t>
-  </si>
-  <si>
-    <t>China White</t>
-  </si>
-  <si>
-    <t>Fe-2</t>
+    <t>Kibbles and Bits</t>
+  </si>
+  <si>
+    <t>Ri-0</t>
+  </si>
+  <si>
+    <t>Synthetic Cannaboids</t>
+  </si>
+  <si>
+    <t>Can-0</t>
+  </si>
+  <si>
+    <t>Abyss</t>
+  </si>
+  <si>
+    <t>Can-1</t>
+  </si>
+  <si>
+    <t>Ace of Spades</t>
+  </si>
+  <si>
+    <t>Can-2</t>
+  </si>
+  <si>
+    <t>AK-47</t>
+  </si>
+  <si>
+    <t>Can-3</t>
+  </si>
+  <si>
+    <t>Buzz Haze</t>
+  </si>
+  <si>
+    <t>Can-4</t>
+  </si>
+  <si>
+    <t>Devil's Venom</t>
+  </si>
+  <si>
+    <t>Can-5</t>
+  </si>
+  <si>
+    <t>Dragon Eye</t>
+  </si>
+  <si>
+    <t>Can-6</t>
+  </si>
+  <si>
+    <t>Earth Blend</t>
+  </si>
+  <si>
+    <t>Can-7</t>
+  </si>
+  <si>
+    <t>Pineapple Express</t>
+  </si>
+  <si>
+    <t>Can-8</t>
+  </si>
+  <si>
+    <t>Krazy Kandy</t>
+  </si>
+  <si>
+    <t>Can-9</t>
   </si>
   <si>
     <t>Synthetic Cathinones</t>
   </si>
   <si>
-    <t>Syn-Cath</t>
-  </si>
-  <si>
-    <t>Dance Fever</t>
-  </si>
-  <si>
-    <t>Fe-3</t>
+    <t>Bloom</t>
+  </si>
+  <si>
+    <t>Sy-Ca-1</t>
+  </si>
+  <si>
+    <t>Vanilla Sky</t>
+  </si>
+  <si>
+    <t>Sy-Ca-2</t>
+  </si>
+  <si>
+    <t>Ocean Burst</t>
+  </si>
+  <si>
+    <t>Sy-Ca-3</t>
+  </si>
+  <si>
+    <t>Bath salts</t>
+  </si>
+  <si>
+    <t>Sy-Ca-5</t>
+  </si>
+  <si>
+    <t>Pure Ivory</t>
+  </si>
+  <si>
+    <t>Sy-Ca-6</t>
+  </si>
+  <si>
+    <t>Red Dove</t>
+  </si>
+  <si>
+    <t>Sy-Ca-7</t>
+  </si>
+  <si>
+    <t>Blue Silk</t>
+  </si>
+  <si>
+    <t>Sy-Ca-8</t>
+  </si>
+  <si>
+    <t>Flakka</t>
+  </si>
+  <si>
+    <t>Sy-Ca-9</t>
+  </si>
+  <si>
+    <t>White Knight</t>
+  </si>
+  <si>
+    <t>Sy-Ca-10</t>
   </si>
   <si>
     <t>Xanax</t>
-  </si>
-  <si>
-    <t>Xan</t>
-  </si>
-  <si>
-    <t>Goodfella</t>
-  </si>
-  <si>
-    <t>Fe-4</t>
-  </si>
-  <si>
-    <t>Jackpot</t>
-  </si>
-  <si>
-    <t>Fe-5</t>
-  </si>
-  <si>
-    <t>Murder 8</t>
-  </si>
-  <si>
-    <t>Fe-6</t>
-  </si>
-  <si>
-    <t>TNT</t>
-  </si>
-  <si>
-    <t>Fe-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G </t>
-  </si>
-  <si>
-    <t>GH-0</t>
-  </si>
-  <si>
-    <t>GEEB</t>
-  </si>
-  <si>
-    <t>GH-1</t>
-  </si>
-  <si>
-    <t>Georgia Home Boy</t>
-  </si>
-  <si>
-    <t>GH-2</t>
-  </si>
-  <si>
-    <t>Liquid E</t>
-  </si>
-  <si>
-    <t>GH-4</t>
-  </si>
-  <si>
-    <t>Liquid X</t>
-  </si>
-  <si>
-    <t>GH-5</t>
-  </si>
-  <si>
-    <t>Scoop</t>
-  </si>
-  <si>
-    <t>GH-6</t>
-  </si>
-  <si>
-    <t>A-bomb</t>
-  </si>
-  <si>
-    <t>He-0</t>
-  </si>
-  <si>
-    <t>Black Pearl</t>
-  </si>
-  <si>
-    <t>He-1</t>
-  </si>
-  <si>
-    <t>Beast</t>
-  </si>
-  <si>
-    <t>He-2</t>
-  </si>
-  <si>
-    <t>Blow Dope</t>
-  </si>
-  <si>
-    <t>He-3</t>
-  </si>
-  <si>
-    <t>Bombs Away</t>
-  </si>
-  <si>
-    <t>He-4</t>
-  </si>
-  <si>
-    <t>Diesel</t>
-  </si>
-  <si>
-    <t>He-5</t>
-  </si>
-  <si>
-    <t>Dirt</t>
-  </si>
-  <si>
-    <t>He-6</t>
-  </si>
-  <si>
-    <t>White Junk</t>
-  </si>
-  <si>
-    <t>He-7</t>
-  </si>
-  <si>
-    <t>White Nurse</t>
-  </si>
-  <si>
-    <t>He-8</t>
-  </si>
-  <si>
-    <t>Fairy Dust</t>
-  </si>
-  <si>
-    <t>He-9</t>
-  </si>
-  <si>
-    <t>Trees</t>
-  </si>
-  <si>
-    <t>He-10</t>
-  </si>
-  <si>
-    <t>Hyrocodone</t>
-  </si>
-  <si>
-    <t>357s</t>
-  </si>
-  <si>
-    <t>Hy -1</t>
-  </si>
-  <si>
-    <t>Bananas</t>
-  </si>
-  <si>
-    <t>Hy -2</t>
-  </si>
-  <si>
-    <t>Dro</t>
-  </si>
-  <si>
-    <t>Hy -3</t>
-  </si>
-  <si>
-    <t>Fluff</t>
-  </si>
-  <si>
-    <t>Hy -4</t>
-  </si>
-  <si>
-    <t>Hy -5</t>
-  </si>
-  <si>
-    <t>Tabs</t>
-  </si>
-  <si>
-    <t>Hy -6</t>
-  </si>
-  <si>
-    <t>Norco</t>
-  </si>
-  <si>
-    <t>Hy -7</t>
-  </si>
-  <si>
-    <t>Vics</t>
-  </si>
-  <si>
-    <t>Hy -8</t>
-  </si>
-  <si>
-    <t>Vikes</t>
-  </si>
-  <si>
-    <t>Hy -9</t>
-  </si>
-  <si>
-    <t>Watsons</t>
-  </si>
-  <si>
-    <t>Hy -10</t>
-  </si>
-  <si>
-    <t>Ketamine</t>
-  </si>
-  <si>
-    <t>Blind Squid</t>
-  </si>
-  <si>
-    <t>Ke - 1</t>
-  </si>
-  <si>
-    <t>Cat Valium</t>
-  </si>
-  <si>
-    <t>Ke - 2</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Ke - 3</t>
-  </si>
-  <si>
-    <t>Honey Oil</t>
-  </si>
-  <si>
-    <t>Ke - 4</t>
-  </si>
-  <si>
-    <t>Jet</t>
-  </si>
-  <si>
-    <t>Ke - 5</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>Ke - 6</t>
-  </si>
-  <si>
-    <t>K-hold</t>
-  </si>
-  <si>
-    <t>Ke - 7</t>
-  </si>
-  <si>
-    <t>Kelly's Day</t>
-  </si>
-  <si>
-    <t>Ke - 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special K </t>
-  </si>
-  <si>
-    <t>Ke - 9</t>
-  </si>
-  <si>
-    <t>Super Acid</t>
-  </si>
-  <si>
-    <t>Ke - 10</t>
-  </si>
-  <si>
-    <t>K-Pin</t>
-  </si>
-  <si>
-    <t>Kl-1</t>
-  </si>
-  <si>
-    <t>Pin</t>
-  </si>
-  <si>
-    <t>Kl-2</t>
-  </si>
-  <si>
-    <t>Super Valium</t>
-  </si>
-  <si>
-    <t>Kl-3</t>
-  </si>
-  <si>
-    <t>LSD</t>
-  </si>
-  <si>
-    <t>Acid</t>
-  </si>
-  <si>
-    <t>LS-0</t>
-  </si>
-  <si>
-    <t>Mind Detergent</t>
-  </si>
-  <si>
-    <t>LS-1</t>
-  </si>
-  <si>
-    <t>Blue Cheer</t>
-  </si>
-  <si>
-    <t>LS-2</t>
-  </si>
-  <si>
-    <t>Blue Star</t>
-  </si>
-  <si>
-    <t>LS-3</t>
-  </si>
-  <si>
-    <t>Blotter Acid</t>
-  </si>
-  <si>
-    <t>LS-4</t>
-  </si>
-  <si>
-    <t>Dots</t>
-  </si>
-  <si>
-    <t>LS-5</t>
-  </si>
-  <si>
-    <t>Sugar Cubes</t>
-  </si>
-  <si>
-    <t>LS-6</t>
-  </si>
-  <si>
-    <t>Uncle Sid</t>
-  </si>
-  <si>
-    <t>LS-7</t>
-  </si>
-  <si>
-    <t>Pink Witches</t>
-  </si>
-  <si>
-    <t>LS-8</t>
-  </si>
-  <si>
-    <t>Ticket</t>
-  </si>
-  <si>
-    <t>LS-9</t>
-  </si>
-  <si>
-    <t>Purple Barrels</t>
-  </si>
-  <si>
-    <t>LS-10</t>
-  </si>
-  <si>
-    <t>Headlights</t>
-  </si>
-  <si>
-    <t>LS-11</t>
-  </si>
-  <si>
-    <t>Tail Lights</t>
-  </si>
-  <si>
-    <t>LS-12</t>
-  </si>
-  <si>
-    <t>Wedge</t>
-  </si>
-  <si>
-    <t>LS-13</t>
-  </si>
-  <si>
-    <t>White Lightening</t>
-  </si>
-  <si>
-    <t>LS-14</t>
-  </si>
-  <si>
-    <t>El Cid</t>
-  </si>
-  <si>
-    <t>LS-15</t>
-  </si>
-  <si>
-    <t>Ma-0</t>
-  </si>
-  <si>
-    <t>Broccoli</t>
-  </si>
-  <si>
-    <t>Ma-1</t>
-  </si>
-  <si>
-    <t>Bud</t>
-  </si>
-  <si>
-    <t>Ma-2</t>
-  </si>
-  <si>
-    <t>Texas Tea</t>
-  </si>
-  <si>
-    <t>Ma-3</t>
-  </si>
-  <si>
-    <t>Blondie</t>
-  </si>
-  <si>
-    <t>Ma-4</t>
-  </si>
-  <si>
-    <t>Chicago Green</t>
-  </si>
-  <si>
-    <t>Ma-5</t>
-  </si>
-  <si>
-    <t>Girl Scout Cookies</t>
-  </si>
-  <si>
-    <t>Ma-6</t>
-  </si>
-  <si>
-    <t>Gorilla</t>
-  </si>
-  <si>
-    <t>Ma-7</t>
-  </si>
-  <si>
-    <t>Green Eyed Girl</t>
-  </si>
-  <si>
-    <t>Ma-8</t>
-  </si>
-  <si>
-    <t>Grass</t>
-  </si>
-  <si>
-    <t>Ma-9</t>
-  </si>
-  <si>
-    <t>Manhattan Silver</t>
-  </si>
-  <si>
-    <t>Ma-10</t>
-  </si>
-  <si>
-    <t>Puff</t>
-  </si>
-  <si>
-    <t>Ma-11</t>
-  </si>
-  <si>
-    <t>Reefer</t>
-  </si>
-  <si>
-    <t>Ma-12</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Ma-13</t>
-  </si>
-  <si>
-    <t>Pot</t>
-  </si>
-  <si>
-    <t>Ma-14</t>
-  </si>
-  <si>
-    <t>Weed</t>
-  </si>
-  <si>
-    <t>Ma-15</t>
-  </si>
-  <si>
-    <t>Mar-Con-1</t>
-  </si>
-  <si>
-    <t>BHO</t>
-  </si>
-  <si>
-    <t>Mar-Con-2</t>
-  </si>
-  <si>
-    <t>Badder</t>
-  </si>
-  <si>
-    <t>Mar-Con-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budder </t>
-  </si>
-  <si>
-    <t>Mar-Con-4</t>
-  </si>
-  <si>
-    <t>Butter</t>
-  </si>
-  <si>
-    <t>Mar-Con-5</t>
-  </si>
-  <si>
-    <t>Dabs</t>
-  </si>
-  <si>
-    <t>Mar-Con-6</t>
-  </si>
-  <si>
-    <t>Ear Wax</t>
-  </si>
-  <si>
-    <t>Mar-Con-7</t>
-  </si>
-  <si>
-    <t>Errl</t>
-  </si>
-  <si>
-    <t>Mar-Con-8</t>
-  </si>
-  <si>
-    <t>SAP</t>
-  </si>
-  <si>
-    <t>Mar-Con-9</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>MD-1</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>MD-2</t>
-  </si>
-  <si>
-    <t>XTC</t>
-  </si>
-  <si>
-    <t>MD-3</t>
-  </si>
-  <si>
-    <t>Bean</t>
-  </si>
-  <si>
-    <t>MD-4</t>
-  </si>
-  <si>
-    <t>Love Drug</t>
-  </si>
-  <si>
-    <t>MD-5</t>
-  </si>
-  <si>
-    <t>Dancing Shoes</t>
-  </si>
-  <si>
-    <t>MD-6</t>
-  </si>
-  <si>
-    <t>Roll</t>
-  </si>
-  <si>
-    <t>MD-7</t>
-  </si>
-  <si>
-    <t>Clarity</t>
-  </si>
-  <si>
-    <t>MD-8</t>
-  </si>
-  <si>
-    <t>Scooby Snacks</t>
-  </si>
-  <si>
-    <t>MD-9</t>
-  </si>
-  <si>
-    <t>Molly</t>
-  </si>
-  <si>
-    <t>MD-10</t>
-  </si>
-  <si>
-    <t>Skittle</t>
-  </si>
-  <si>
-    <t>MD-11</t>
-  </si>
-  <si>
-    <t>Big chief</t>
-  </si>
-  <si>
-    <t>Me-0</t>
-  </si>
-  <si>
-    <t>Blue Caps</t>
-  </si>
-  <si>
-    <t>Me-1</t>
-  </si>
-  <si>
-    <t>Buttons</t>
-  </si>
-  <si>
-    <t>Me-2</t>
-  </si>
-  <si>
-    <t>Cactus</t>
-  </si>
-  <si>
-    <t>Me-3</t>
-  </si>
-  <si>
-    <t>Media Luna</t>
-  </si>
-  <si>
-    <t>Me-4</t>
-  </si>
-  <si>
-    <t>Mescal</t>
-  </si>
-  <si>
-    <t>Me-5</t>
-  </si>
-  <si>
-    <t>Mezcakuba</t>
-  </si>
-  <si>
-    <t>Me-6</t>
-  </si>
-  <si>
-    <t>Moon</t>
-  </si>
-  <si>
-    <t>Me-7</t>
-  </si>
-  <si>
-    <t>San Pedro</t>
-  </si>
-  <si>
-    <t>Me-8</t>
-  </si>
-  <si>
-    <t>Topi</t>
-  </si>
-  <si>
-    <t>Me-9</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Meth-1</t>
-  </si>
-  <si>
-    <t>Glass</t>
-  </si>
-  <si>
-    <t>Meth-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal </t>
-  </si>
-  <si>
-    <t>Meth-3</t>
-  </si>
-  <si>
-    <t>Meth-4</t>
-  </si>
-  <si>
-    <t>Chalk</t>
-  </si>
-  <si>
-    <t>Meth-5</t>
-  </si>
-  <si>
-    <t>Wash</t>
-  </si>
-  <si>
-    <t>Meth-6</t>
-  </si>
-  <si>
-    <t>Meth</t>
-  </si>
-  <si>
-    <t>Meth-7</t>
-  </si>
-  <si>
-    <t>Hot ice</t>
-  </si>
-  <si>
-    <t>Meth-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ice </t>
-  </si>
-  <si>
-    <t>Meth-9</t>
-  </si>
-  <si>
-    <t>Colorado Rockies</t>
-  </si>
-  <si>
-    <t>Meth-10</t>
-  </si>
-  <si>
-    <t>Mexican Crack</t>
-  </si>
-  <si>
-    <t>Meth-11</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Meth-12</t>
-  </si>
-  <si>
-    <t>Shaved Ice</t>
-  </si>
-  <si>
-    <t>Meth-13</t>
-  </si>
-  <si>
-    <t>Alice</t>
-  </si>
-  <si>
-    <t>Mu-0</t>
-  </si>
-  <si>
-    <t>Boomers</t>
-  </si>
-  <si>
-    <t>Mu-1</t>
-  </si>
-  <si>
-    <t>Caps</t>
-  </si>
-  <si>
-    <t>Mu-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Champiñones</t>
-  </si>
-  <si>
-    <t>Mu-4</t>
-  </si>
-  <si>
-    <t>Hongos</t>
-  </si>
-  <si>
-    <t>Mu-5</t>
-  </si>
-  <si>
-    <t>Magic</t>
-  </si>
-  <si>
-    <t>Mu-6</t>
-  </si>
-  <si>
-    <t>Mushies</t>
-  </si>
-  <si>
-    <t>Mu-7</t>
-  </si>
-  <si>
-    <t>Pizza Toppings</t>
-  </si>
-  <si>
-    <t>Mu-8</t>
-  </si>
-  <si>
-    <t>Shrooms</t>
-  </si>
-  <si>
-    <t>Mu-9</t>
-  </si>
-  <si>
-    <t>Tweezes</t>
-  </si>
-  <si>
-    <t>Mu-10</t>
-  </si>
-  <si>
-    <t>Joy Plant</t>
-  </si>
-  <si>
-    <t>Op-0</t>
-  </si>
-  <si>
-    <t>Big O</t>
-  </si>
-  <si>
-    <t>Op-1</t>
-  </si>
-  <si>
-    <t>Black Russian</t>
-  </si>
-  <si>
-    <t>Op-2</t>
-  </si>
-  <si>
-    <t>Dream Gum</t>
-  </si>
-  <si>
-    <t>Op-3</t>
-  </si>
-  <si>
-    <t>Goma</t>
-  </si>
-  <si>
-    <t>Op-4</t>
-  </si>
-  <si>
-    <t>Gondola</t>
-  </si>
-  <si>
-    <t>Op-5</t>
-  </si>
-  <si>
-    <t>Dream stick</t>
-  </si>
-  <si>
-    <t>Op-6</t>
-  </si>
-  <si>
-    <t>Hops</t>
-  </si>
-  <si>
-    <t>Op-7</t>
-  </si>
-  <si>
-    <t>Skee</t>
-  </si>
-  <si>
-    <t>Op-8</t>
-  </si>
-  <si>
-    <t>Toxy</t>
-  </si>
-  <si>
-    <t>Op-9</t>
-  </si>
-  <si>
-    <t>Op-10</t>
-  </si>
-  <si>
-    <t>Midnight Oil</t>
-  </si>
-  <si>
-    <t>Op-11</t>
-  </si>
-  <si>
-    <t>Zero</t>
-  </si>
-  <si>
-    <t>Op-12</t>
-  </si>
-  <si>
-    <t>Pin Yen</t>
-  </si>
-  <si>
-    <t>Op-13</t>
-  </si>
-  <si>
-    <t>30s</t>
-  </si>
-  <si>
-    <t>oxy-1</t>
-  </si>
-  <si>
-    <t>40s</t>
-  </si>
-  <si>
-    <t>oxy-2</t>
-  </si>
-  <si>
-    <t>oxy-3</t>
-  </si>
-  <si>
-    <t>Beans</t>
-  </si>
-  <si>
-    <t>oxy-4</t>
-  </si>
-  <si>
-    <t>Blues</t>
-  </si>
-  <si>
-    <t>oxy-5</t>
-  </si>
-  <si>
-    <t>whites</t>
-  </si>
-  <si>
-    <t>oxy-6</t>
-  </si>
-  <si>
-    <t>O.C</t>
-  </si>
-  <si>
-    <t>oxy-7</t>
-  </si>
-  <si>
-    <t>Ace</t>
-  </si>
-  <si>
-    <t>PC-0</t>
-  </si>
-  <si>
-    <t>Angel Dust</t>
-  </si>
-  <si>
-    <t>PC-1</t>
-  </si>
-  <si>
-    <t>Purple Rain</t>
-  </si>
-  <si>
-    <t>PC-2</t>
-  </si>
-  <si>
-    <t>Red Devil</t>
-  </si>
-  <si>
-    <t>PC-3</t>
-  </si>
-  <si>
-    <t>Rocket Fuel</t>
-  </si>
-  <si>
-    <t>PC-4</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>PC-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zoom </t>
-  </si>
-  <si>
-    <t>PC-6</t>
-  </si>
-  <si>
-    <t>Space</t>
-  </si>
-  <si>
-    <t>PC-7</t>
-  </si>
-  <si>
-    <t>Yellow Fever</t>
-  </si>
-  <si>
-    <t>PC-8</t>
-  </si>
-  <si>
-    <t>Venom</t>
-  </si>
-  <si>
-    <t>PC-9</t>
-  </si>
-  <si>
-    <t>Monkey Dust</t>
-  </si>
-  <si>
-    <t>PC-10</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>PC-11</t>
-  </si>
-  <si>
-    <t>Percocet</t>
-  </si>
-  <si>
-    <t>512s</t>
-  </si>
-  <si>
-    <t>Per-1</t>
-  </si>
-  <si>
-    <t>kickers</t>
-  </si>
-  <si>
-    <t>Per-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hillbilly Heroin </t>
-  </si>
-  <si>
-    <t>Per-3</t>
-  </si>
-  <si>
-    <t>M-30s</t>
-  </si>
-  <si>
-    <t>Per-4</t>
-  </si>
-  <si>
-    <t>Percs</t>
-  </si>
-  <si>
-    <t>Per-5</t>
-  </si>
-  <si>
-    <t>Rims</t>
-  </si>
-  <si>
-    <t>Per-6</t>
-  </si>
-  <si>
-    <t>Tires</t>
-  </si>
-  <si>
-    <t>Per-7</t>
-  </si>
-  <si>
-    <t>Wheels</t>
-  </si>
-  <si>
-    <t>Per-8</t>
-  </si>
-  <si>
-    <t>Britton</t>
-  </si>
-  <si>
-    <t>Pey-1</t>
-  </si>
-  <si>
-    <t>Half Moon</t>
-  </si>
-  <si>
-    <t>Pey-2</t>
-  </si>
-  <si>
-    <t>Hikori</t>
-  </si>
-  <si>
-    <t>Pey-3</t>
-  </si>
-  <si>
-    <t>Hikuli</t>
-  </si>
-  <si>
-    <t>Pey-4</t>
-  </si>
-  <si>
-    <t>Hyatari</t>
-  </si>
-  <si>
-    <t>Pey-5</t>
-  </si>
-  <si>
-    <t>Nubs</t>
-  </si>
-  <si>
-    <t>Pey-6</t>
-  </si>
-  <si>
-    <t>Seni</t>
-  </si>
-  <si>
-    <t>Pey-7</t>
-  </si>
-  <si>
-    <t>Tops</t>
-  </si>
-  <si>
-    <t>Pey-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Black Button </t>
-  </si>
-  <si>
-    <t>Pey-9</t>
-  </si>
-  <si>
-    <t>Promethazine With Codeine</t>
-  </si>
-  <si>
-    <t>Act</t>
-  </si>
-  <si>
-    <t>Pr-0</t>
-  </si>
-  <si>
-    <t>Drank</t>
-  </si>
-  <si>
-    <t>Pr-1</t>
-  </si>
-  <si>
-    <t>Lean</t>
-  </si>
-  <si>
-    <t>Pr-2</t>
-  </si>
-  <si>
-    <t>Purple Drank</t>
-  </si>
-  <si>
-    <t>Pr-4</t>
-  </si>
-  <si>
-    <t>Sizurup</t>
-  </si>
-  <si>
-    <t>Pr-5</t>
-  </si>
-  <si>
-    <t>Sizzurp</t>
-  </si>
-  <si>
-    <t>Pr-6</t>
-  </si>
-  <si>
-    <t>Syrup</t>
-  </si>
-  <si>
-    <t>Pr-7</t>
-  </si>
-  <si>
-    <t>Kibbles and Bits</t>
-  </si>
-  <si>
-    <t>Ri-0</t>
-  </si>
-  <si>
-    <t>Synthetic Cannaboids</t>
-  </si>
-  <si>
-    <t>Can-0</t>
-  </si>
-  <si>
-    <t>Abyss</t>
-  </si>
-  <si>
-    <t>Can-1</t>
-  </si>
-  <si>
-    <t>Ace of Spades</t>
-  </si>
-  <si>
-    <t>Can-2</t>
-  </si>
-  <si>
-    <t>AK-47</t>
-  </si>
-  <si>
-    <t>Can-3</t>
-  </si>
-  <si>
-    <t>Buzz Haze</t>
-  </si>
-  <si>
-    <t>Can-4</t>
-  </si>
-  <si>
-    <t>Devil's Venom</t>
-  </si>
-  <si>
-    <t>Can-5</t>
-  </si>
-  <si>
-    <t>Dragon Eye</t>
-  </si>
-  <si>
-    <t>Can-6</t>
-  </si>
-  <si>
-    <t>Earth Blend</t>
-  </si>
-  <si>
-    <t>Can-7</t>
-  </si>
-  <si>
-    <t>Pineapple Express</t>
-  </si>
-  <si>
-    <t>Can-8</t>
-  </si>
-  <si>
-    <t>Krazy Kandy</t>
-  </si>
-  <si>
-    <t>Can-9</t>
-  </si>
-  <si>
-    <t>Bloom</t>
-  </si>
-  <si>
-    <t>Sy-Ca-1</t>
-  </si>
-  <si>
-    <t>Vanilla Sky</t>
-  </si>
-  <si>
-    <t>Sy-Ca-2</t>
-  </si>
-  <si>
-    <t>Ocean Burst</t>
-  </si>
-  <si>
-    <t>Sy-Ca-3</t>
-  </si>
-  <si>
-    <t>Bath salts</t>
-  </si>
-  <si>
-    <t>Sy-Ca-5</t>
-  </si>
-  <si>
-    <t>Pure Ivory</t>
-  </si>
-  <si>
-    <t>Sy-Ca-6</t>
-  </si>
-  <si>
-    <t>Red Dove</t>
-  </si>
-  <si>
-    <t>Sy-Ca-7</t>
-  </si>
-  <si>
-    <t>Blue Silk</t>
-  </si>
-  <si>
-    <t>Sy-Ca-8</t>
-  </si>
-  <si>
-    <t>Flakka</t>
-  </si>
-  <si>
-    <t>Sy-Ca-9</t>
-  </si>
-  <si>
-    <t>White Knight</t>
-  </si>
-  <si>
-    <t>Sy-Ca-10</t>
   </si>
   <si>
     <t>Zanbars</t>
@@ -1646,7 +1823,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m-d"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1670,6 +1847,11 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FF1D9BF0"/>
+      <name val="TwitterChirp"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color theme="1"/>
       <name val="TwitterChirp"/>
     </font>
@@ -1679,7 +1861,7 @@
       <name val="TwitterChirp"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1690,6 +1872,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1711,7 +1905,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1730,19 +1924,31 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1975,6 +2181,8 @@
     <col customWidth="1" min="1" max="1" width="21.63"/>
     <col customWidth="1" min="2" max="2" width="16.63"/>
     <col customWidth="1" min="3" max="3" width="28.13"/>
+    <col customWidth="1" min="6" max="6" width="39.0"/>
+    <col customWidth="1" min="7" max="7" width="28.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1993,2835 +2201,3035 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>17</v>
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
+      <c r="D5" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>34</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>34</v>
+        <v>61</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>38</v>
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>75</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>43</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>46</v>
+        <v>84</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>50</v>
+        <v>91</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>54</v>
+        <v>97</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>57</v>
+        <v>104</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>106</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="J15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>61</v>
+        <v>110</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>62</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>65</v>
+        <v>114</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>66</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="7"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>70</v>
+        <v>119</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>70</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>73</v>
+        <v>123</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>74</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>77</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>80</v>
+        <v>130</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>86</v>
+        <v>137</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>87</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="F23" s="7"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>92</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>95</v>
+        <v>146</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>96</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>99</v>
+        <v>150</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>103</v>
+        <v>154</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>155</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>104</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="D28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>108</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>117</v>
+        <v>169</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>119</v>
+        <v>171</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>120</v>
+        <v>172</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>121</v>
+        <v>173</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>122</v>
+        <v>174</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>123</v>
+        <v>175</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>125</v>
+        <v>177</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>126</v>
+        <v>178</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>128</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>129</v>
+        <v>181</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>130</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>133</v>
+        <v>185</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>135</v>
+        <v>187</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>136</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>138</v>
+        <v>190</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>140</v>
+        <v>192</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>146</v>
+        <v>198</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>148</v>
+        <v>200</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>149</v>
+        <v>201</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>151</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>153</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>155</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>156</v>
+        <v>208</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>158</v>
+        <v>210</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>159</v>
+        <v>211</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>166</v>
+        <v>218</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>168</v>
+        <v>220</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>178</v>
+        <v>230</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>179</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>181</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>182</v>
+        <v>234</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>183</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>184</v>
+        <v>236</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>185</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>188</v>
+        <v>240</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>189</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>190</v>
+        <v>242</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>197</v>
+        <v>249</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>200</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>201</v>
+        <v>253</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>202</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>203</v>
+        <v>255</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>205</v>
+        <v>257</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>206</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>208</v>
+        <v>260</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>209</v>
+        <v>261</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>211</v>
+        <v>263</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>214</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>217</v>
+        <v>269</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>218</v>
+        <v>270</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>222</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>224</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>194</v>
+        <v>246</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2">
         <v>420.0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>227</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>228</v>
+        <v>280</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>231</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>233</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>255</v>
+        <v>307</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>257</v>
+        <v>309</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B104" s="2">
         <v>246.0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>259</v>
+        <v>311</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>260</v>
+        <v>312</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>261</v>
+        <v>313</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>262</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>264</v>
+        <v>316</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>265</v>
+        <v>317</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>266</v>
+        <v>318</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>267</v>
+        <v>319</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>268</v>
+        <v>320</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>270</v>
+        <v>322</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>271</v>
+        <v>323</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>272</v>
+        <v>324</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>274</v>
+        <v>326</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>275</v>
+        <v>327</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>276</v>
+        <v>328</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>279</v>
+        <v>331</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>281</v>
+        <v>333</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>282</v>
+        <v>334</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>284</v>
+        <v>336</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>285</v>
+        <v>337</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>288</v>
+        <v>340</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>293</v>
+        <v>345</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>294</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>295</v>
+        <v>347</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>57</v>
+        <v>349</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>297</v>
+        <v>350</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>298</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>57</v>
+        <v>349</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>57</v>
+        <v>349</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>301</v>
+        <v>354</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>302</v>
+        <v>355</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>57</v>
+        <v>349</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>303</v>
+        <v>356</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>304</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>57</v>
+        <v>349</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>305</v>
+        <v>358</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>306</v>
+        <v>359</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>57</v>
+        <v>349</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>307</v>
+        <v>360</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>57</v>
+        <v>349</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>310</v>
+        <v>363</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>57</v>
+        <v>349</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>311</v>
+        <v>364</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>312</v>
+        <v>365</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>57</v>
+        <v>349</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>314</v>
+        <v>367</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>57</v>
+        <v>349</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>315</v>
+        <v>368</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>316</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>317</v>
+        <v>371</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>318</v>
+        <v>372</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>319</v>
+        <v>373</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>320</v>
+        <v>374</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>321</v>
+        <v>375</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>322</v>
+        <v>376</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>299</v>
+        <v>352</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>323</v>
+        <v>377</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>324</v>
+        <v>370</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>378</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>325</v>
+        <v>379</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>326</v>
+        <v>380</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>327</v>
+        <v>381</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>330</v>
+        <v>384</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>331</v>
+        <v>385</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>333</v>
+        <v>387</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>335</v>
+        <v>389</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>336</v>
+        <v>390</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>337</v>
+        <v>391</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>61</v>
+        <v>370</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>340</v>
+        <v>394</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>341</v>
+        <v>395</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>342</v>
+        <v>397</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>343</v>
+        <v>398</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>344</v>
+        <v>399</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>345</v>
+        <v>400</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>347</v>
+        <v>402</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>348</v>
+        <v>403</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>350</v>
+        <v>405</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>351</v>
+        <v>406</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>352</v>
+        <v>407</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>353</v>
+        <v>408</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>354</v>
+        <v>409</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>355</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>356</v>
+        <v>411</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>357</v>
+        <v>412</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>358</v>
+        <v>413</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>359</v>
+        <v>414</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>65</v>
+        <v>396</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>360</v>
+        <v>415</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>361</v>
+        <v>416</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>362</v>
+        <v>417</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>363</v>
+        <v>418</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>364</v>
+        <v>419</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>365</v>
+        <v>420</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>367</v>
+        <v>422</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>370</v>
+        <v>425</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>371</v>
+        <v>426</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>372</v>
+        <v>427</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>377</v>
+        <v>432</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>378</v>
+        <v>433</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>379</v>
+        <v>434</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>380</v>
+        <v>435</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>376</v>
+        <v>431</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>382</v>
+        <v>437</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B168" s="7" t="s">
-        <v>383</v>
+        <v>121</v>
+      </c>
+      <c r="B168" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>387</v>
+        <v>442</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>388</v>
+        <v>443</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>73</v>
+        <v>444</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>389</v>
+        <v>445</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>390</v>
+        <v>446</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>73</v>
+        <v>444</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>73</v>
+        <v>444</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>73</v>
+        <v>444</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>73</v>
+        <v>444</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>397</v>
+        <v>453</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>73</v>
+        <v>444</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>398</v>
+        <v>454</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>399</v>
+        <v>455</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>73</v>
+        <v>444</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>77</v>
+        <v>128</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>445</v>
+        <v>501</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>446</v>
+        <v>502</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>447</v>
+        <v>503</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>448</v>
+        <v>504</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>449</v>
+        <v>505</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>450</v>
+        <v>506</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>451</v>
+        <v>507</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>452</v>
+        <v>508</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>453</v>
+        <v>509</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>454</v>
+        <v>510</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>464</v>
+        <v>520</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>465</v>
+        <v>521</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>466</v>
+        <v>522</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>467</v>
+        <v>523</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>468</v>
+        <v>524</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>469</v>
+        <v>525</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>470</v>
+        <v>526</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>471</v>
+        <v>527</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>472</v>
+        <v>528</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>473</v>
+        <v>529</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>474</v>
+        <v>530</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>475</v>
+        <v>531</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>91</v>
+        <v>532</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="B215" s="8">
+        <v>535</v>
+      </c>
+      <c r="B215" s="12">
         <v>45402.0</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>99</v>
+        <v>555</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>498</v>
+        <v>556</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>99</v>
+        <v>555</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>99</v>
+        <v>555</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>99</v>
+        <v>555</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>99</v>
+        <v>555</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>507</v>
+        <v>565</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>99</v>
+        <v>555</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>508</v>
+        <v>566</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>509</v>
+        <v>567</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>99</v>
+        <v>555</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>510</v>
+        <v>568</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>511</v>
+        <v>569</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>99</v>
+        <v>555</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>512</v>
+        <v>570</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>99</v>
+        <v>555</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>103</v>
+        <v>574</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>516</v>
+        <v>575</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>517</v>
+        <v>576</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>103</v>
+        <v>574</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>518</v>
+        <v>577</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>519</v>
+        <v>578</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>103</v>
+        <v>574</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>103</v>
+        <v>574</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>103</v>
+        <v>574</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>103</v>
+        <v>574</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
     </row>
     <row r="240">
       <c r="B240" s="3" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
     </row>
     <row r="241">
       <c r="B241" s="3" t="s">
-        <v>530</v>
+        <v>589</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>531</v>
+        <v>590</v>
       </c>
     </row>
     <row r="242">
       <c r="B242" s="3" t="s">
-        <v>532</v>
+        <v>591</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
     </row>
     <row r="243">
       <c r="B243" s="3" t="s">
-        <v>534</v>
+        <v>593</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>535</v>
+        <v>594</v>
       </c>
     </row>
     <row r="244">
-      <c r="B244" s="9" t="s">
-        <v>536</v>
+      <c r="B244" s="13" t="s">
+        <v>595</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="10"/>
-      <c r="B245" s="9" t="s">
-        <v>538</v>
+      <c r="A245" s="14"/>
+      <c r="B245" s="13" t="s">
+        <v>597</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>539</v>
+        <v>598</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="10"/>
-      <c r="B246" s="9" t="s">
-        <v>540</v>
+      <c r="A246" s="14"/>
+      <c r="B246" s="13" t="s">
+        <v>599</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>541</v>
+        <v>600</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="10"/>
+      <c r="A247" s="14"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C107">

--- a/lmolina3/src/utils/codes.xlsx
+++ b/lmolina3/src/utils/codes.xlsx
@@ -10,8 +10,24 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="E28">
+      <text>
+        <t xml:space="preserve">added some additional keywords that aren't really efficient enough for us to search for directly, but will be included as keywords on dealer accounts
+	-Jack Mangione</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="611">
   <si>
     <t>Drug name</t>
   </si>
@@ -490,42 +506,75 @@
     <t>Fe-4</t>
   </si>
   <si>
+    <t>coke2</t>
+  </si>
+  <si>
     <t>Jackpot</t>
   </si>
   <si>
     <t>Fe-5</t>
   </si>
   <si>
+    <t>mdma2</t>
+  </si>
+  <si>
     <t>Murder 8</t>
   </si>
   <si>
     <t>Fe-6</t>
   </si>
   <si>
+    <t>pills</t>
+  </si>
+  <si>
+    <t>Pills</t>
+  </si>
+  <si>
     <t>TNT</t>
   </si>
   <si>
     <t>Fe-7</t>
   </si>
   <si>
+    <t>weed</t>
+  </si>
+  <si>
+    <t>Weed</t>
+  </si>
+  <si>
     <t xml:space="preserve">G </t>
   </si>
   <si>
     <t>GH-0</t>
   </si>
   <si>
+    <t>plug</t>
+  </si>
+  <si>
+    <t>Plug</t>
+  </si>
+  <si>
     <t>GEEB</t>
   </si>
   <si>
     <t>GH-1</t>
   </si>
   <si>
+    <t>sale</t>
+  </si>
+  <si>
     <t>Georgia Home Boy</t>
   </si>
   <si>
     <t>GH-2</t>
   </si>
   <si>
+    <t>dmt</t>
+  </si>
+  <si>
+    <t>DMT</t>
+  </si>
+  <si>
     <t>Liquid E</t>
   </si>
   <si>
@@ -935,9 +984,6 @@
   </si>
   <si>
     <t>Ma-14</t>
-  </si>
-  <si>
-    <t>Weed</t>
   </si>
   <si>
     <t>Ma-15</t>
@@ -2846,29 +2892,45 @@
       <c r="C28" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D29" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -2876,10 +2938,16 @@
         <v>140</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="32">
@@ -2887,10 +2955,16 @@
         <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>166</v>
+        <v>172</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="33">
@@ -2898,10 +2972,16 @@
         <v>48</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>168</v>
+        <v>176</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="34">
@@ -2909,10 +2989,16 @@
         <v>48</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="35">
@@ -2920,10 +3006,10 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36">
@@ -2931,10 +3017,10 @@
         <v>48</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="37">
@@ -2942,10 +3028,10 @@
         <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="38">
@@ -2953,10 +3039,10 @@
         <v>55</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39">
@@ -2964,10 +3050,10 @@
         <v>55</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40">
@@ -2975,10 +3061,10 @@
         <v>55</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="41">
@@ -2986,10 +3072,10 @@
         <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42">
@@ -2997,10 +3083,10 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="43">
@@ -3008,10 +3094,10 @@
         <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="44">
@@ -3019,10 +3105,10 @@
         <v>55</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45">
@@ -3030,10 +3116,10 @@
         <v>55</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46">
@@ -3041,10 +3127,10 @@
         <v>55</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="47">
@@ -3052,10 +3138,10 @@
         <v>55</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48">
@@ -3063,230 +3149,230 @@
         <v>55</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="69">
@@ -3294,10 +3380,10 @@
         <v>69</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70">
@@ -3305,10 +3391,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71">
@@ -3316,186 +3402,186 @@
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88">
@@ -3506,7 +3592,7 @@
         <v>420.0</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="89">
@@ -3514,10 +3600,10 @@
         <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="90">
@@ -3525,10 +3611,10 @@
         <v>85</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="91">
@@ -3536,10 +3622,10 @@
         <v>85</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="92">
@@ -3547,10 +3633,10 @@
         <v>85</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
     </row>
     <row r="93">
@@ -3558,10 +3644,10 @@
         <v>85</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
     </row>
     <row r="94">
@@ -3569,10 +3655,10 @@
         <v>85</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
     </row>
     <row r="95">
@@ -3580,10 +3666,10 @@
         <v>85</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>293</v>
+        <v>304</v>
       </c>
     </row>
     <row r="96">
@@ -3591,10 +3677,10 @@
         <v>85</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="97">
@@ -3602,10 +3688,10 @@
         <v>85</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
     </row>
     <row r="98">
@@ -3613,10 +3699,10 @@
         <v>85</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>299</v>
+        <v>310</v>
       </c>
     </row>
     <row r="99">
@@ -3624,10 +3710,10 @@
         <v>85</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>300</v>
+        <v>311</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>301</v>
+        <v>312</v>
       </c>
     </row>
     <row r="100">
@@ -3635,10 +3721,10 @@
         <v>85</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>303</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101">
@@ -3646,10 +3732,10 @@
         <v>85</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
     </row>
     <row r="102">
@@ -3657,10 +3743,10 @@
         <v>85</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
     </row>
     <row r="103">
@@ -3668,10 +3754,10 @@
         <v>85</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>308</v>
+        <v>170</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
     </row>
     <row r="104">
@@ -3682,7 +3768,7 @@
         <v>246.0</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105">
@@ -3690,10 +3776,10 @@
         <v>92</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
     </row>
     <row r="106">
@@ -3701,10 +3787,10 @@
         <v>92</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
     </row>
     <row r="107">
@@ -3712,10 +3798,10 @@
         <v>92</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108">
@@ -3723,10 +3809,10 @@
         <v>92</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="109">
@@ -3734,10 +3820,10 @@
         <v>92</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="110">
@@ -3745,10 +3831,10 @@
         <v>92</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111">
@@ -3756,10 +3842,10 @@
         <v>92</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
     </row>
     <row r="112">
@@ -3767,10 +3853,10 @@
         <v>92</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
     </row>
     <row r="113">
@@ -3778,10 +3864,10 @@
         <v>99</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
     </row>
     <row r="114">
@@ -3789,10 +3875,10 @@
         <v>99</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
     </row>
     <row r="115">
@@ -3800,10 +3886,10 @@
         <v>99</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="116">
@@ -3811,10 +3897,10 @@
         <v>99</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
     </row>
     <row r="117">
@@ -3822,10 +3908,10 @@
         <v>99</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
     </row>
     <row r="118">
@@ -3833,10 +3919,10 @@
         <v>99</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
     </row>
     <row r="119">
@@ -3844,10 +3930,10 @@
         <v>99</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
     </row>
     <row r="120">
@@ -3855,10 +3941,10 @@
         <v>99</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121">
@@ -3866,10 +3952,10 @@
         <v>99</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
     </row>
     <row r="122">
@@ -3877,10 +3963,10 @@
         <v>99</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="123">
@@ -3888,373 +3974,373 @@
         <v>99</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B138" s="10" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
     </row>
     <row r="157">
@@ -4262,10 +4348,10 @@
         <v>121</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
     </row>
     <row r="158">
@@ -4273,10 +4359,10 @@
         <v>121</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
     </row>
     <row r="159">
@@ -4284,10 +4370,10 @@
         <v>121</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="160">
@@ -4295,10 +4381,10 @@
         <v>121</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
     </row>
     <row r="161">
@@ -4306,10 +4392,10 @@
         <v>121</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
     </row>
     <row r="162">
@@ -4317,10 +4403,10 @@
         <v>121</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163">
@@ -4328,10 +4414,10 @@
         <v>121</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
     </row>
     <row r="164">
@@ -4339,10 +4425,10 @@
         <v>121</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165">
@@ -4350,10 +4436,10 @@
         <v>121</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166">
@@ -4361,10 +4447,10 @@
         <v>121</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
     </row>
     <row r="167">
@@ -4372,10 +4458,10 @@
         <v>121</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168">
@@ -4383,10 +4469,10 @@
         <v>121</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="169">
@@ -4394,10 +4480,10 @@
         <v>121</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170">
@@ -4405,87 +4491,87 @@
         <v>121</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
     </row>
     <row r="178">
@@ -4493,10 +4579,10 @@
         <v>128</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
     </row>
     <row r="179">
@@ -4504,10 +4590,10 @@
         <v>128</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
     </row>
     <row r="180">
@@ -4515,10 +4601,10 @@
         <v>128</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
     </row>
     <row r="181">
@@ -4526,10 +4612,10 @@
         <v>128</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
     </row>
     <row r="182">
@@ -4537,10 +4623,10 @@
         <v>128</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
     </row>
     <row r="183">
@@ -4548,10 +4634,10 @@
         <v>128</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
     </row>
     <row r="184">
@@ -4559,10 +4645,10 @@
         <v>128</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
     </row>
     <row r="185">
@@ -4570,10 +4656,10 @@
         <v>128</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
     </row>
     <row r="186">
@@ -4581,10 +4667,10 @@
         <v>128</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
     </row>
     <row r="187">
@@ -4592,10 +4678,10 @@
         <v>128</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
     </row>
     <row r="188">
@@ -4603,10 +4689,10 @@
         <v>128</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
     </row>
     <row r="189">
@@ -4614,98 +4700,98 @@
         <v>128</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
     </row>
     <row r="198">
@@ -4713,10 +4799,10 @@
         <v>135</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
     </row>
     <row r="199">
@@ -4724,10 +4810,10 @@
         <v>135</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
     </row>
     <row r="200">
@@ -4735,10 +4821,10 @@
         <v>135</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
     </row>
     <row r="201">
@@ -4746,10 +4832,10 @@
         <v>135</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
     </row>
     <row r="202">
@@ -4757,10 +4843,10 @@
         <v>135</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
     </row>
     <row r="203">
@@ -4768,10 +4854,10 @@
         <v>135</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="204">
@@ -4779,10 +4865,10 @@
         <v>135</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
     </row>
     <row r="205">
@@ -4790,10 +4876,10 @@
         <v>135</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
     </row>
     <row r="206">
@@ -4801,431 +4887,431 @@
         <v>135</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>516</v>
+        <v>526</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>518</v>
+        <v>528</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>521</v>
+        <v>531</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>522</v>
+        <v>532</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>523</v>
+        <v>533</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>524</v>
+        <v>534</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>525</v>
+        <v>535</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>517</v>
+        <v>527</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B215" s="12">
         <v>45402.0</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="240">
       <c r="B240" s="3" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="241">
       <c r="B241" s="3" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="242">
       <c r="B242" s="3" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="243">
       <c r="B243" s="3" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="244">
       <c r="B244" s="13" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="14"/>
       <c r="B245" s="13" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="14"/>
       <c r="B246" s="13" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
     </row>
     <row r="247">
@@ -5237,6 +5323,7 @@
       <formula>LEN(TRIM(C107))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>